--- a/pins.xlsx
+++ b/pins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\mcguitarpedal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73B19E5-8B9A-4C7C-BFD9-B08616EC5D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AD046C-1B84-45FD-A56C-6ACFA51FA304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
   </bookViews>
@@ -599,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -630,24 +630,23 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -760,10 +759,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,10 +1081,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="G10:W71"/>
+  <dimension ref="G10:Y71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X59" sqref="X59"/>
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,10 +1113,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1133,90 +1128,90 @@
         <v>3</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="8">
         <v>23</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="16"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="23" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="8">
         <v>21</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="16"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="23" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G17" s="16"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8">
         <v>7</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="23" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -1224,25 +1219,25 @@
       </c>
     </row>
     <row r="19" spans="7:11" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="16"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="16"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="23" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="8">
         <v>8</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="23" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -1250,12 +1245,12 @@
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="16"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1291,126 +1286,126 @@
       </c>
     </row>
     <row r="24" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="22">
         <v>13</v>
       </c>
-      <c r="I24" s="19"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="22">
         <v>12</v>
       </c>
-      <c r="I26" s="19"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="22">
         <v>11</v>
       </c>
-      <c r="I28" s="19"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="22">
         <v>10</v>
       </c>
-      <c r="I30" s="19"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="18"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="22">
         <v>6</v>
       </c>
-      <c r="I32" s="19"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="7:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
+    <row r="33" spans="7:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="18"/>
-    </row>
-    <row r="34" spans="7:21" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="7:25" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="G34" s="7" t="s">
         <v>45</v>
       </c>
@@ -1425,7 +1420,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G40" s="12" t="s">
         <v>101</v>
       </c>
@@ -1434,6 +1429,9 @@
       </c>
       <c r="I40" s="12" t="s">
         <v>53</v>
+      </c>
+      <c r="L40">
+        <v>62</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>49</v>
@@ -1443,8 +1441,11 @@
       <c r="S40" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="Y40">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
         <v>54</v>
       </c>
@@ -1454,7 +1455,10 @@
       <c r="I41" t="s">
         <v>56</v>
       </c>
-      <c r="P41" s="23">
+      <c r="L41">
+        <v>61</v>
+      </c>
+      <c r="P41" s="19">
         <v>0</v>
       </c>
       <c r="Q41" s="1"/>
@@ -1462,15 +1466,21 @@
       <c r="S41" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="Y41">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
         <v>49</v>
       </c>
       <c r="H42" t="s">
         <v>49</v>
       </c>
-      <c r="P42" s="23">
+      <c r="L42">
+        <v>60</v>
+      </c>
+      <c r="P42" s="19">
         <v>1</v>
       </c>
       <c r="Q42" s="1"/>
@@ -1478,8 +1488,11 @@
       <c r="S42" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="Y42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
         <v>57</v>
       </c>
@@ -1489,7 +1502,10 @@
       <c r="I43" t="s">
         <v>58</v>
       </c>
-      <c r="P43" s="23">
+      <c r="L43">
+        <v>59</v>
+      </c>
+      <c r="P43" s="19">
         <v>2</v>
       </c>
       <c r="Q43" s="1"/>
@@ -1503,15 +1519,21 @@
       <c r="U43" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="Y43">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
         <v>59</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
       </c>
-      <c r="P44" s="23">
+      <c r="L44">
+        <v>58</v>
+      </c>
+      <c r="P44" s="19">
         <v>3</v>
       </c>
       <c r="Q44" s="1"/>
@@ -1519,11 +1541,14 @@
       <c r="S44">
         <v>22</v>
       </c>
-      <c r="T44" s="23" t="s">
+      <c r="T44" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="Y44">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
         <v>61</v>
       </c>
@@ -1533,7 +1558,10 @@
       <c r="I45" t="s">
         <v>62</v>
       </c>
-      <c r="P45" s="23">
+      <c r="L45">
+        <v>57</v>
+      </c>
+      <c r="P45" s="19">
         <v>4</v>
       </c>
       <c r="Q45" s="1"/>
@@ -1547,15 +1575,21 @@
       <c r="U45" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="46" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="Y45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G46" t="s">
         <v>63</v>
       </c>
       <c r="H46" t="s">
         <v>64</v>
       </c>
-      <c r="P46" s="23">
+      <c r="L46">
+        <v>56</v>
+      </c>
+      <c r="P46" s="19">
         <v>5</v>
       </c>
       <c r="Q46" s="1"/>
@@ -1569,13 +1603,19 @@
       <c r="U46" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="47" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="Y46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>31</v>
       </c>
       <c r="H47" t="s">
         <v>65</v>
+      </c>
+      <c r="L47">
+        <v>55</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>42</v>
@@ -1594,8 +1634,11 @@
       <c r="U47" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="Y47">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>51</v>
       </c>
@@ -1604,6 +1647,9 @@
       </c>
       <c r="I48" t="s">
         <v>66</v>
+      </c>
+      <c r="L48">
+        <v>54</v>
       </c>
       <c r="N48" s="13" t="s">
         <v>16</v>
@@ -1622,13 +1668,19 @@
       <c r="U48" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y48">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G49" t="s">
         <v>67</v>
       </c>
       <c r="H49" t="s">
         <v>68</v>
+      </c>
+      <c r="L49">
+        <v>53</v>
       </c>
       <c r="N49" s="13" t="s">
         <v>21</v>
@@ -1641,16 +1693,22 @@
       <c r="S49">
         <v>17</v>
       </c>
-      <c r="T49" s="23" t="s">
+      <c r="T49" s="19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y49">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G50" t="s">
         <v>69</v>
       </c>
       <c r="H50" t="s">
         <v>65</v>
+      </c>
+      <c r="L50">
+        <v>52</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>61</v>
@@ -1663,11 +1721,14 @@
       <c r="S50">
         <v>16</v>
       </c>
-      <c r="T50" s="23" t="s">
+      <c r="T50" s="19" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="51" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y50">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
         <v>70</v>
       </c>
@@ -1676,6 +1737,9 @@
       </c>
       <c r="I51" t="s">
         <v>71</v>
+      </c>
+      <c r="L51">
+        <v>51</v>
       </c>
       <c r="N51" s="13" t="s">
         <v>39</v>
@@ -1688,21 +1752,27 @@
       <c r="S51">
         <v>15</v>
       </c>
-      <c r="T51" s="23" t="s">
+      <c r="T51" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="U51" s="24" t="s">
+      <c r="U51" s="20" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="52" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>72</v>
       </c>
       <c r="H52" t="s">
         <v>64</v>
       </c>
-      <c r="M52" s="20" t="s">
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52" s="16" t="s">
         <v>97</v>
       </c>
       <c r="N52" s="13" t="s">
@@ -1716,18 +1786,24 @@
       <c r="S52">
         <v>14</v>
       </c>
-      <c r="T52" s="23" t="s">
+      <c r="T52" s="19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="53" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>73</v>
       </c>
       <c r="H53" t="s">
         <v>68</v>
       </c>
-      <c r="M53" s="20" t="s">
+      <c r="L53">
+        <v>49</v>
+      </c>
+      <c r="M53" s="16" t="s">
         <v>96</v>
       </c>
       <c r="N53" s="13" t="s">
@@ -1744,14 +1820,17 @@
       <c r="T53" t="s">
         <v>51</v>
       </c>
-      <c r="U53" s="21" t="s">
+      <c r="U53" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="V53" s="20" t="s">
+      <c r="V53" s="16" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y53">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G54" t="s">
         <v>74</v>
       </c>
@@ -1760,6 +1839,9 @@
       </c>
       <c r="I54" t="s">
         <v>75</v>
+      </c>
+      <c r="L54">
+        <v>48</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>50</v>
@@ -1769,8 +1851,14 @@
       <c r="S54" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>47</v>
+      </c>
       <c r="N55" s="2" t="s">
         <v>111</v>
       </c>
@@ -1791,10 +1879,16 @@
       <c r="U55" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y55">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G56" t="s">
         <v>120</v>
+      </c>
+      <c r="L56">
+        <v>46</v>
       </c>
       <c r="M56" t="s">
         <v>103</v>
@@ -1816,10 +1910,16 @@
       <c r="U56" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="7:23" x14ac:dyDescent="0.3">
-      <c r="G57" s="22" t="s">
+      <c r="Y56">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G57" s="18" t="s">
         <v>119</v>
+      </c>
+      <c r="L57">
+        <v>45</v>
       </c>
       <c r="M57" t="s">
         <v>103</v>
@@ -1841,8 +1941,14 @@
       <c r="U57" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="58" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>44</v>
+      </c>
       <c r="M58" t="s">
         <v>104</v>
       </c>
@@ -1863,8 +1969,14 @@
       <c r="U58" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y58">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>43</v>
+      </c>
       <c r="M59" t="s">
         <v>104</v>
       </c>
@@ -1879,8 +1991,14 @@
       <c r="U59" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>42</v>
+      </c>
       <c r="M60" t="s">
         <v>102</v>
       </c>
@@ -1895,8 +2013,14 @@
       <c r="U60" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y60">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>41</v>
+      </c>
       <c r="M61" t="s">
         <v>102</v>
       </c>
@@ -1911,28 +2035,43 @@
       <c r="U61" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="62" spans="7:23" x14ac:dyDescent="0.3">
-      <c r="P62" s="23">
+      <c r="Y61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>40</v>
+      </c>
+      <c r="P62" s="19">
         <v>31</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="S62" s="23">
+      <c r="S62" s="19">
         <v>34</v>
       </c>
-    </row>
-    <row r="63" spans="7:23" x14ac:dyDescent="0.3">
-      <c r="P63" s="23">
+      <c r="Y62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>39</v>
+      </c>
+      <c r="P63" s="19">
         <v>32</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-      <c r="S63" s="23">
+      <c r="S63" s="19">
         <v>33</v>
       </c>
-    </row>
-    <row r="64" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="Y63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="7:25" x14ac:dyDescent="0.3">
       <c r="V64" t="s">
         <v>98</v>
       </c>
@@ -1950,10 +2089,10 @@
       </c>
     </row>
     <row r="66" spans="22:23" x14ac:dyDescent="0.3">
-      <c r="V66" s="25" t="s">
+      <c r="V66" t="s">
         <v>114</v>
       </c>
-      <c r="W66" s="25">
+      <c r="W66">
         <v>8</v>
       </c>
     </row>
@@ -1992,26 +2131,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J10:J11"/>
@@ -2027,6 +2146,26 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="J18:J19"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\mcguitarpedal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AD046C-1B84-45FD-A56C-6ACFA51FA304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AED9744-9FA0-4862-8BA7-0B6A94750FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
   <si>
     <t>Audio Shield</t>
   </si>
@@ -384,18 +384,6 @@
     <t>TFT_CS</t>
   </si>
   <si>
-    <t>button_1</t>
-  </si>
-  <si>
-    <t>button_2</t>
-  </si>
-  <si>
-    <t>button_3</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
     <t>Encoders</t>
   </si>
   <si>
@@ -423,17 +411,65 @@
     <t>Notes on available pins using the audio shield:</t>
   </si>
   <si>
-    <t>*has extra resistors and/or capacitors for smoothing out analog input</t>
-  </si>
-  <si>
     <t>Overlap</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>LED_CLK</t>
+  </si>
+  <si>
+    <t>LED_DATA</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>BTN_MTX_GS</t>
+  </si>
+  <si>
+    <t>BTN_MTX_C</t>
+  </si>
+  <si>
+    <t>BTN_MTX_B</t>
+  </si>
+  <si>
+    <t>BTN_MTX_A</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>NC (MISO1)</t>
+  </si>
+  <si>
+    <t>encoder_1_btn</t>
+  </si>
+  <si>
+    <t>encoder_3_btn</t>
+  </si>
+  <si>
+    <t>encoder_2_btn</t>
+  </si>
+  <si>
+    <t>HP_VOLUME</t>
+  </si>
+  <si>
+    <t>NC (POT2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,15 +546,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,6 +590,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -599,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -634,7 +675,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -647,6 +687,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -656,6 +698,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF003300"/>
       <color rgb="FF66FFCC"/>
     </mruColors>
   </colors>
@@ -674,14 +717,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>21331</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>17521</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>298713</xdr:rowOff>
+      <xdr:rowOff>296808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>236718</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>248148</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>37461</xdr:rowOff>
     </xdr:to>
@@ -705,8 +748,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="19755965" y="6885736"/>
-          <a:ext cx="5921834" cy="6920987"/>
+          <a:off x="21536876" y="6825776"/>
+          <a:ext cx="5735800" cy="6886921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -717,16 +760,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>98588</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>201658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>238348</xdr:colOff>
+      <xdr:colOff>784368</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>184851</xdr:rowOff>
+      <xdr:rowOff>173421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1081,10 +1124,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="G10:Y71"/>
+  <dimension ref="G10:AA92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" topLeftCell="K68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X92" sqref="X92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,14 +1138,15 @@
     <col min="10" max="10" width="22.44140625" customWidth="1"/>
     <col min="11" max="11" width="49.21875" customWidth="1"/>
     <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="7:11" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -1113,10 +1157,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1128,90 +1172,90 @@
         <v>3</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="8">
         <v>23</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="23"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="8">
         <v>21</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="23"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G17" s="23"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8">
         <v>7</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -1219,25 +1263,25 @@
       </c>
     </row>
     <row r="19" spans="7:11" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="23"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="23"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="8">
         <v>8</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -1245,12 +1289,12 @@
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="23"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="23"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1286,126 +1330,126 @@
       </c>
     </row>
     <row r="24" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="21">
         <v>13</v>
       </c>
-      <c r="I24" s="22"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="21">
         <v>12</v>
       </c>
-      <c r="I26" s="22"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="21"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="21">
         <v>11</v>
       </c>
-      <c r="I28" s="22"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="21"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="21">
         <v>10</v>
       </c>
-      <c r="I30" s="22"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="21"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="21">
         <v>6</v>
       </c>
-      <c r="I32" s="22"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="21" t="s">
+      <c r="K32" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="7:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+    <row r="33" spans="7:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="7:25" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="7:27" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="G34" s="7" t="s">
         <v>45</v>
       </c>
@@ -1420,7 +1464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G40" s="12" t="s">
         <v>101</v>
       </c>
@@ -1433,19 +1477,19 @@
       <c r="L40">
         <v>62</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="S40" s="3" t="s">
+      <c r="S40" s="1"/>
+      <c r="T40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
         <v>54</v>
       </c>
@@ -1458,19 +1502,22 @@
       <c r="L41">
         <v>61</v>
       </c>
-      <c r="P41" s="19">
+      <c r="O41" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q41" s="19">
         <v>0</v>
       </c>
-      <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="S41" s="3" t="s">
+      <c r="S41" s="1"/>
+      <c r="T41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Y41">
+      <c r="AA41">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
         <v>49</v>
       </c>
@@ -1480,19 +1527,22 @@
       <c r="L42">
         <v>60</v>
       </c>
-      <c r="P42" s="19">
+      <c r="O42" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q42">
         <v>1</v>
       </c>
-      <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="3" t="s">
+      <c r="S42" s="1"/>
+      <c r="T42" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
         <v>57</v>
       </c>
@@ -1505,25 +1555,28 @@
       <c r="L43">
         <v>59</v>
       </c>
-      <c r="P43" s="19">
+      <c r="O43" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q43" s="19">
         <v>2</v>
       </c>
-      <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="S43">
+      <c r="S43" s="1"/>
+      <c r="T43">
         <v>23</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>79</v>
       </c>
-      <c r="U43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y43">
+      <c r="V43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z43">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
         <v>59</v>
       </c>
@@ -1533,22 +1586,28 @@
       <c r="L44">
         <v>58</v>
       </c>
-      <c r="P44" s="19">
+      <c r="O44" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q44" s="19">
         <v>3</v>
       </c>
-      <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="S44">
+      <c r="S44" s="1"/>
+      <c r="T44">
         <v>22</v>
       </c>
-      <c r="T44" s="19" t="s">
+      <c r="U44" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Y44">
+      <c r="V44" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z44">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
         <v>61</v>
       </c>
@@ -1561,25 +1620,28 @@
       <c r="L45">
         <v>57</v>
       </c>
-      <c r="P45" s="19">
+      <c r="O45" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q45">
         <v>4</v>
       </c>
-      <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="S45">
+      <c r="S45" s="1"/>
+      <c r="T45">
         <v>21</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>81</v>
       </c>
-      <c r="U45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y45">
+      <c r="V45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z45">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G46" t="s">
         <v>63</v>
       </c>
@@ -1589,25 +1651,28 @@
       <c r="L46">
         <v>56</v>
       </c>
-      <c r="P46" s="19">
+      <c r="O46" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q46">
         <v>5</v>
       </c>
-      <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46">
+      <c r="S46" s="1"/>
+      <c r="T46">
         <v>20</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>82</v>
       </c>
-      <c r="U46" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y46">
+      <c r="V46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z46">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>31</v>
       </c>
@@ -1617,28 +1682,28 @@
       <c r="L47">
         <v>55</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="O47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P47" s="2">
+      <c r="Q47" s="2">
         <v>6</v>
       </c>
-      <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47">
+      <c r="S47" s="1"/>
+      <c r="T47">
         <v>19</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>83</v>
       </c>
-      <c r="U47" s="14" t="s">
+      <c r="V47" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:27" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>51</v>
       </c>
@@ -1651,28 +1716,28 @@
       <c r="L48">
         <v>54</v>
       </c>
-      <c r="N48" s="13" t="s">
+      <c r="O48" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P48" s="2">
+      <c r="Q48" s="2">
         <v>7</v>
       </c>
-      <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="S48">
+      <c r="S48" s="1"/>
+      <c r="T48">
         <v>18</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>84</v>
       </c>
-      <c r="U48" s="14" t="s">
+      <c r="V48" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G49" t="s">
         <v>67</v>
       </c>
@@ -1682,25 +1747,28 @@
       <c r="L49">
         <v>53</v>
       </c>
-      <c r="N49" s="13" t="s">
+      <c r="O49" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P49" s="2">
+      <c r="Q49" s="2">
         <v>8</v>
       </c>
-      <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="S49">
+      <c r="S49" s="1"/>
+      <c r="T49">
         <v>17</v>
       </c>
-      <c r="T49" s="19" t="s">
+      <c r="U49" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Y49">
+      <c r="V49" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z49">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G50" t="s">
         <v>69</v>
       </c>
@@ -1710,25 +1778,28 @@
       <c r="L50">
         <v>52</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P50" s="4">
+      <c r="O50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q50" s="4">
         <v>9</v>
       </c>
-      <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="S50">
+      <c r="S50" s="1"/>
+      <c r="T50">
         <v>16</v>
       </c>
-      <c r="T50" s="19" t="s">
+      <c r="U50" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="Y50">
+      <c r="V50" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z50">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
         <v>70</v>
       </c>
@@ -1741,28 +1812,28 @@
       <c r="L51">
         <v>51</v>
       </c>
-      <c r="N51" s="13" t="s">
+      <c r="O51" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>10</v>
       </c>
-      <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="S51">
+      <c r="S51" s="1"/>
+      <c r="T51">
         <v>15</v>
       </c>
-      <c r="T51" s="19" t="s">
+      <c r="U51" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="U51" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y51">
+      <c r="V51" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z51">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>72</v>
       </c>
@@ -1772,28 +1843,28 @@
       <c r="L52">
         <v>50</v>
       </c>
-      <c r="M52" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="N52" s="13" t="s">
+      <c r="O52" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P52" s="4">
+      <c r="Q52" s="4">
         <v>11</v>
       </c>
-      <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="S52">
+      <c r="S52" s="1"/>
+      <c r="T52">
         <v>14</v>
       </c>
-      <c r="T52" s="19" t="s">
+      <c r="U52" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="Y52">
+      <c r="V52" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>73</v>
       </c>
@@ -1803,34 +1874,28 @@
       <c r="L53">
         <v>49</v>
       </c>
-      <c r="M53" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="N53" s="13" t="s">
+      <c r="O53" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P53" s="4">
+      <c r="Q53" s="4">
         <v>12</v>
       </c>
-      <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
-      <c r="S53" s="4">
+      <c r="S53" s="1"/>
+      <c r="T53">
         <v>13</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>51</v>
       </c>
-      <c r="U53" s="17" t="s">
+      <c r="V53" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="V53" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G54" t="s">
         <v>74</v>
       </c>
@@ -1843,290 +1908,863 @@
       <c r="L54">
         <v>48</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="Q54" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="3" t="s">
+      <c r="S54" s="1"/>
+      <c r="T54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:26" x14ac:dyDescent="0.3">
       <c r="L55">
         <v>47</v>
       </c>
-      <c r="N55" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="O55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P55" t="s">
         <v>87</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>24</v>
       </c>
-      <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="S55" s="4">
+      <c r="S55" s="1"/>
+      <c r="T55">
         <v>41</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>93</v>
       </c>
-      <c r="U55" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y55">
+      <c r="V55" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z55">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L56">
         <v>46</v>
       </c>
-      <c r="M56" t="s">
-        <v>103</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="O56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="s">
         <v>88</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>25</v>
       </c>
-      <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-      <c r="S56" s="4">
+      <c r="S56" s="1"/>
+      <c r="T56">
         <v>40</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>94</v>
       </c>
-      <c r="U56" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y56">
+      <c r="V56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z56">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G57" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L57">
         <v>45</v>
       </c>
-      <c r="M57" t="s">
-        <v>103</v>
-      </c>
-      <c r="O57" t="s">
+      <c r="O57" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P57" t="s">
         <v>89</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>26</v>
       </c>
-      <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="S57">
+      <c r="S57" s="1"/>
+      <c r="T57" s="4">
         <v>39</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>92</v>
       </c>
-      <c r="U57" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y57">
+      <c r="V57" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z57">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:26" x14ac:dyDescent="0.3">
       <c r="L58">
         <v>44</v>
       </c>
-      <c r="M58" t="s">
+      <c r="O58" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="P58" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q58">
+        <v>27</v>
+      </c>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58">
+        <v>38</v>
+      </c>
+      <c r="U58" t="s">
+        <v>91</v>
+      </c>
+      <c r="V58" t="s">
         <v>104</v>
       </c>
-      <c r="O58" t="s">
-        <v>90</v>
-      </c>
-      <c r="P58">
-        <v>27</v>
-      </c>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58">
-        <v>38</v>
-      </c>
-      <c r="T58" t="s">
-        <v>91</v>
-      </c>
-      <c r="U58" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:26" x14ac:dyDescent="0.3">
       <c r="L59">
         <v>43</v>
       </c>
-      <c r="M59" t="s">
+      <c r="O59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q59">
+        <v>28</v>
+      </c>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59">
+        <v>37</v>
+      </c>
+      <c r="V59" t="s">
         <v>104</v>
       </c>
-      <c r="P59">
-        <v>28</v>
-      </c>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59">
-        <v>37</v>
-      </c>
-      <c r="U59" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:26" x14ac:dyDescent="0.3">
       <c r="L60">
         <v>42</v>
       </c>
-      <c r="M60" t="s">
-        <v>102</v>
-      </c>
-      <c r="P60">
+      <c r="O60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q60">
         <v>29</v>
       </c>
-      <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="4">
+      <c r="S60" s="1"/>
+      <c r="T60">
         <v>36</v>
       </c>
-      <c r="U60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y60">
+      <c r="V60" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z60">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:26" x14ac:dyDescent="0.3">
       <c r="L61">
         <v>41</v>
       </c>
-      <c r="M61" t="s">
+      <c r="O61" t="s">
         <v>102</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>30</v>
       </c>
-      <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-      <c r="S61" s="4">
+      <c r="S61" s="1"/>
+      <c r="T61">
         <v>35</v>
       </c>
-      <c r="U61" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y61">
+      <c r="V61" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z61">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" cm="1">
+        <f t="array" ref="H62">SUMPRODUCT(--(ISNUMBER(Q40:Q63) * (NOT(ISTEXT(Q40:Q63))))) + SUMPRODUCT(--(ISNUMBER(T40:T63) * (NOT(ISTEXT(T40:T63)))))</f>
+        <v>42</v>
+      </c>
       <c r="L62">
         <v>40</v>
       </c>
-      <c r="P62" s="19">
+      <c r="O62" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q62">
         <v>31</v>
       </c>
-      <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="S62" s="19">
+      <c r="S62" s="1"/>
+      <c r="T62">
         <v>34</v>
       </c>
-      <c r="Y62">
+      <c r="V62" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z62">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>99</v>
+      </c>
+      <c r="H63">
+        <v>13</v>
+      </c>
       <c r="L63">
         <v>39</v>
       </c>
-      <c r="P63" s="19">
+      <c r="O63" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q63">
         <v>32</v>
       </c>
-      <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-      <c r="S63" s="19">
+      <c r="S63" s="1"/>
+      <c r="T63">
         <v>33</v>
       </c>
-      <c r="Y63">
+      <c r="V63" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z63">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="V64" t="s">
-        <v>98</v>
-      </c>
-      <c r="W64" cm="1">
-        <f t="array" ref="W64">SUMPRODUCT(--(ISNUMBER(P40:P63) * (NOT(ISTEXT(P40:P63))))) + SUMPRODUCT(--(ISNUMBER(S40:S63) * (NOT(ISTEXT(S40:S63)))))</f>
+    <row r="64" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G65" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H65" s="15">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="66" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G67" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <f>H62-SUM(H63:H68)</f>
+        <v>15</v>
+      </c>
+      <c r="L69">
+        <v>62</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z69">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>61</v>
+      </c>
+      <c r="O70" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q70" s="19">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>60</v>
+      </c>
+      <c r="O71" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>59</v>
+      </c>
+      <c r="O72" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q72" s="19">
+        <v>2</v>
+      </c>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72">
+        <v>23</v>
+      </c>
+      <c r="U72" t="s">
+        <v>79</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z72">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>58</v>
+      </c>
+      <c r="O73" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q73" s="19">
+        <v>3</v>
+      </c>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73">
+        <v>22</v>
+      </c>
+      <c r="U73" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="V73" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z73">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>57</v>
+      </c>
+      <c r="O74" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q74">
+        <v>4</v>
+      </c>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74">
+        <v>21</v>
+      </c>
+      <c r="U74" t="s">
+        <v>81</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z74">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>56</v>
+      </c>
+      <c r="O75" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q75">
+        <v>5</v>
+      </c>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75">
+        <v>20</v>
+      </c>
+      <c r="U75" t="s">
+        <v>82</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>55</v>
+      </c>
+      <c r="O76" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="22:23" x14ac:dyDescent="0.3">
-      <c r="V65" t="s">
-        <v>99</v>
-      </c>
-      <c r="W65">
+      <c r="Q76" s="2">
+        <v>6</v>
+      </c>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76">
+        <v>19</v>
+      </c>
+      <c r="U76" t="s">
+        <v>83</v>
+      </c>
+      <c r="V76" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z76">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <v>54</v>
+      </c>
+      <c r="O77" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>7</v>
+      </c>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77">
+        <v>18</v>
+      </c>
+      <c r="U77" t="s">
+        <v>84</v>
+      </c>
+      <c r="V77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z77">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>53</v>
+      </c>
+      <c r="O78" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>8</v>
+      </c>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78">
+        <v>17</v>
+      </c>
+      <c r="U78" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z78">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>52</v>
+      </c>
+      <c r="O79" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>9</v>
+      </c>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79">
+        <v>16</v>
+      </c>
+      <c r="U79" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="V79" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z79">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <v>51</v>
+      </c>
+      <c r="O80" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q80">
+        <v>10</v>
+      </c>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80">
+        <v>15</v>
+      </c>
+      <c r="U80" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="V80" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z80">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>50</v>
+      </c>
+      <c r="O81" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>11</v>
+      </c>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81">
+        <v>14</v>
+      </c>
+      <c r="U81" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L82">
+        <v>49</v>
+      </c>
+      <c r="O82" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>12</v>
+      </c>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="22:23" x14ac:dyDescent="0.3">
-      <c r="V66" t="s">
-        <v>114</v>
-      </c>
-      <c r="W66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="22:23" x14ac:dyDescent="0.3">
-      <c r="V67" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="W67" s="15">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="68" spans="22:23" x14ac:dyDescent="0.3">
-      <c r="V68" t="s">
-        <v>112</v>
-      </c>
-      <c r="W68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="22:23" x14ac:dyDescent="0.3">
-      <c r="V69" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="W69" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="22:23" x14ac:dyDescent="0.3">
-      <c r="V71" t="s">
-        <v>100</v>
-      </c>
-      <c r="W71">
-        <f>W64-SUM(W65:W70)</f>
-        <v>15</v>
+      <c r="U82" t="s">
+        <v>51</v>
+      </c>
+      <c r="V82" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z82">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <v>48</v>
+      </c>
+      <c r="O83" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z83">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <v>47</v>
+      </c>
+      <c r="O84" t="s">
+        <v>103</v>
+      </c>
+      <c r="P84" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q84">
+        <v>24</v>
+      </c>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84">
+        <v>41</v>
+      </c>
+      <c r="U84" t="s">
+        <v>93</v>
+      </c>
+      <c r="V84" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z84">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <v>46</v>
+      </c>
+      <c r="O85" t="s">
+        <v>131</v>
+      </c>
+      <c r="P85" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q85">
+        <v>25</v>
+      </c>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s">
+        <v>94</v>
+      </c>
+      <c r="V85" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z85">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <v>45</v>
+      </c>
+      <c r="O86" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P86" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q86">
+        <v>26</v>
+      </c>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="4">
+        <v>39</v>
+      </c>
+      <c r="U86" t="s">
+        <v>92</v>
+      </c>
+      <c r="V86" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z86">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L87">
+        <v>44</v>
+      </c>
+      <c r="O87" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="P87" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q87">
+        <v>27</v>
+      </c>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87">
+        <v>38</v>
+      </c>
+      <c r="U87" t="s">
+        <v>91</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z87">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L88">
+        <v>43</v>
+      </c>
+      <c r="O88" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q88">
+        <v>28</v>
+      </c>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88">
+        <v>37</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z88">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L89">
+        <v>42</v>
+      </c>
+      <c r="O89" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q89">
+        <v>29</v>
+      </c>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89">
+        <v>36</v>
+      </c>
+      <c r="V89" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z89">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L90">
+        <v>41</v>
+      </c>
+      <c r="O90" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q90">
+        <v>30</v>
+      </c>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90">
+        <v>35</v>
+      </c>
+      <c r="V90" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z90">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L91">
+        <v>40</v>
+      </c>
+      <c r="O91" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q91">
+        <v>31</v>
+      </c>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91">
+        <v>34</v>
+      </c>
+      <c r="V91" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L92">
+        <v>39</v>
+      </c>
+      <c r="O92" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q92">
+        <v>32</v>
+      </c>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92">
+        <v>33</v>
+      </c>
+      <c r="V92" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z92">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -5,45 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\mcguitarpedal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csaba\Documents\PlatformIO\Projects\mcguitarpedal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AED9744-9FA0-4862-8BA7-0B6A94750FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBF7A6C-F65C-4E1E-BECC-293207B90A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="139">
   <si>
     <t>Audio Shield</t>
   </si>
@@ -384,6 +373,18 @@
     <t>TFT_CS</t>
   </si>
   <si>
+    <t>button_1</t>
+  </si>
+  <si>
+    <t>button_2</t>
+  </si>
+  <si>
+    <t>button_3</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
     <t>Encoders</t>
   </si>
   <si>
@@ -411,65 +412,65 @@
     <t>Notes on available pins using the audio shield:</t>
   </si>
   <si>
+    <t>*has extra resistors and/or capacitors for smoothing out analog input</t>
+  </si>
+  <si>
     <t>Overlap</t>
   </si>
   <si>
+    <t>POT</t>
+  </si>
+  <si>
     <t>EXP</t>
   </si>
   <si>
-    <t>POT</t>
-  </si>
-  <si>
-    <t>LED_CLK</t>
+    <t>MISO1</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>encoder_2_btn</t>
+  </si>
+  <si>
+    <t>encoder_3_btn</t>
+  </si>
+  <si>
+    <t>encoder_1_btn</t>
   </si>
   <si>
     <t>LED_DATA</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>SW2</t>
+    <t>LED_CS</t>
   </si>
   <si>
     <t>BTN_MTX_GS</t>
   </si>
   <si>
+    <t>BTN_MTX_A</t>
+  </si>
+  <si>
+    <t>BTN_MTX_B</t>
+  </si>
+  <si>
     <t>BTN_MTX_C</t>
   </si>
   <si>
-    <t>BTN_MTX_B</t>
-  </si>
-  <si>
-    <t>BTN_MTX_A</t>
-  </si>
-  <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>NC (MISO1)</t>
-  </si>
-  <si>
-    <t>encoder_1_btn</t>
-  </si>
-  <si>
-    <t>encoder_3_btn</t>
-  </si>
-  <si>
-    <t>encoder_2_btn</t>
-  </si>
-  <si>
-    <t>HP_VOLUME</t>
-  </si>
-  <si>
-    <t>NC (POT2)</t>
+    <t>NC(MISO1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,8 +547,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,13 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -675,6 +696,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -687,8 +710,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -698,7 +726,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF003300"/>
       <color rgb="FF66FFCC"/>
     </mruColors>
   </colors>
@@ -718,13 +745,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>17521</xdr:colOff>
+      <xdr:colOff>21331</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>296808</xdr:rowOff>
+      <xdr:rowOff>298713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>248148</xdr:colOff>
+      <xdr:colOff>236718</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>37461</xdr:rowOff>
     </xdr:to>
@@ -748,8 +775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="21536876" y="6825776"/>
-          <a:ext cx="5735800" cy="6886921"/>
+          <a:off x="19755965" y="6885736"/>
+          <a:ext cx="5921834" cy="6920987"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -766,10 +793,10 @@
       <xdr:rowOff>201658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>784368</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>70708</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>173421</xdr:rowOff>
+      <xdr:rowOff>184851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1124,10 +1151,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="G10:AA92"/>
+  <dimension ref="G10:AA152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X92" sqref="X92"/>
+    <sheetView tabSelected="1" topLeftCell="K127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M140" sqref="M140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,13 +1166,13 @@
     <col min="11" max="11" width="49.21875" customWidth="1"/>
     <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.88671875" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" customWidth="1"/>
     <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1157,10 +1184,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="25" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1172,90 +1199,90 @@
         <v>3</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="24" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="8">
         <v>23</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="22"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="8">
         <v>21</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="22"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G17" s="22"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="24" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8">
         <v>7</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="24" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -1263,25 +1290,25 @@
       </c>
     </row>
     <row r="19" spans="7:11" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="22"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="22"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="8">
         <v>8</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -1289,12 +1316,12 @@
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="22"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="22"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1330,124 +1357,124 @@
       </c>
     </row>
     <row r="24" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="23">
         <v>13</v>
       </c>
-      <c r="I24" s="21"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="20"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="23">
         <v>12</v>
       </c>
-      <c r="I26" s="21"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="20"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="23">
         <v>11</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="20"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="30" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="23">
         <v>10</v>
       </c>
-      <c r="I30" s="21"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="20"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="23">
         <v>6</v>
       </c>
-      <c r="I32" s="21"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="7:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="20"/>
+      <c r="K33" s="22"/>
     </row>
     <row r="34" spans="7:27" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="G34" s="7" t="s">
@@ -1502,15 +1529,13 @@
       <c r="L41">
         <v>61</v>
       </c>
-      <c r="O41" t="s">
-        <v>128</v>
-      </c>
       <c r="Q41" s="19">
         <v>0</v>
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="3" t="s">
+      <c r="T41" s="1"/>
+      <c r="U41" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AA41">
@@ -1527,10 +1552,7 @@
       <c r="L42">
         <v>60</v>
       </c>
-      <c r="O42" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q42">
+      <c r="Q42" s="19">
         <v>1</v>
       </c>
       <c r="R42" s="1"/>
@@ -1555,9 +1577,6 @@
       <c r="L43">
         <v>59</v>
       </c>
-      <c r="O43" t="s">
-        <v>123</v>
-      </c>
       <c r="Q43" s="19">
         <v>2</v>
       </c>
@@ -1570,7 +1589,7 @@
         <v>79</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z43">
         <v>59</v>
@@ -1585,9 +1604,6 @@
       </c>
       <c r="L44">
         <v>58</v>
-      </c>
-      <c r="O44" t="s">
-        <v>122</v>
       </c>
       <c r="Q44" s="19">
         <v>3</v>
@@ -1600,9 +1616,6 @@
       <c r="U44" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="V44" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="Z44">
         <v>58</v>
       </c>
@@ -1620,10 +1633,7 @@
       <c r="L45">
         <v>57</v>
       </c>
-      <c r="O45" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q45">
+      <c r="Q45" s="19">
         <v>4</v>
       </c>
       <c r="R45" s="1"/>
@@ -1635,7 +1645,7 @@
         <v>81</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z45">
         <v>57</v>
@@ -1651,10 +1661,7 @@
       <c r="L46">
         <v>56</v>
       </c>
-      <c r="O46" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q46">
+      <c r="Q46" s="19">
         <v>5</v>
       </c>
       <c r="R46" s="1"/>
@@ -1666,7 +1673,7 @@
         <v>82</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z46">
         <v>56</v>
@@ -1761,9 +1768,6 @@
       <c r="U49" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="V49" s="19" t="s">
-        <v>119</v>
-      </c>
       <c r="Z49">
         <v>53</v>
       </c>
@@ -1778,8 +1782,8 @@
       <c r="L50">
         <v>52</v>
       </c>
-      <c r="O50" s="4" t="s">
-        <v>107</v>
+      <c r="N50" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="Q50" s="4">
         <v>9</v>
@@ -1792,9 +1796,6 @@
       <c r="U50" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="V50" t="s">
-        <v>125</v>
-      </c>
       <c r="Z50">
         <v>52</v>
       </c>
@@ -1826,8 +1827,8 @@
       <c r="U51" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="V51" t="s">
-        <v>126</v>
+      <c r="V51" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="Z51">
         <v>51</v>
@@ -1857,9 +1858,6 @@
       <c r="U52" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="V52" t="s">
-        <v>127</v>
-      </c>
       <c r="Z52">
         <v>50</v>
       </c>
@@ -1882,7 +1880,7 @@
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53">
+      <c r="T53" s="4">
         <v>13</v>
       </c>
       <c r="U53" t="s">
@@ -1924,8 +1922,8 @@
       <c r="L55">
         <v>47</v>
       </c>
-      <c r="O55" s="4" t="s">
-        <v>106</v>
+      <c r="O55" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="P55" t="s">
         <v>87</v>
@@ -1935,14 +1933,14 @@
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
-      <c r="T55">
+      <c r="T55" s="4">
         <v>41</v>
       </c>
       <c r="U55" t="s">
         <v>93</v>
       </c>
-      <c r="V55" t="s">
-        <v>124</v>
+      <c r="V55" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="Z55">
         <v>47</v>
@@ -1950,13 +1948,13 @@
     </row>
     <row r="56" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G56" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L56">
         <v>46</v>
       </c>
-      <c r="O56" s="4" t="s">
-        <v>61</v>
+      <c r="N56" t="s">
+        <v>103</v>
       </c>
       <c r="P56" t="s">
         <v>88</v>
@@ -1966,14 +1964,14 @@
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56">
+      <c r="T56" s="4">
         <v>40</v>
       </c>
       <c r="U56" t="s">
         <v>94</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>133</v>
+      <c r="V56" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="Z56">
         <v>46</v>
@@ -1981,12 +1979,12 @@
     </row>
     <row r="57" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G57" s="18" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L57">
         <v>45</v>
       </c>
-      <c r="O57" s="16" t="s">
+      <c r="N57" s="16" t="s">
         <v>97</v>
       </c>
       <c r="P57" t="s">
@@ -1997,7 +1995,7 @@
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="4">
+      <c r="T57">
         <v>39</v>
       </c>
       <c r="U57" t="s">
@@ -2014,8 +2012,8 @@
       <c r="L58">
         <v>44</v>
       </c>
-      <c r="O58" s="16" t="s">
-        <v>111</v>
+      <c r="N58" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="P58" t="s">
         <v>90</v>
@@ -2032,7 +2030,7 @@
         <v>91</v>
       </c>
       <c r="V58" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Z58">
         <v>44</v>
@@ -2042,8 +2040,11 @@
       <c r="L59">
         <v>43</v>
       </c>
-      <c r="O59" s="4" t="s">
-        <v>105</v>
+      <c r="M59" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N59" t="s">
+        <v>104</v>
       </c>
       <c r="Q59">
         <v>28</v>
@@ -2054,7 +2055,7 @@
         <v>37</v>
       </c>
       <c r="V59" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Z59">
         <v>43</v>
@@ -2064,19 +2065,22 @@
       <c r="L60">
         <v>42</v>
       </c>
-      <c r="O60" s="4" t="s">
-        <v>74</v>
+      <c r="M60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N60" t="s">
+        <v>102</v>
       </c>
       <c r="Q60">
         <v>29</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60">
+      <c r="T60" s="4">
         <v>36</v>
       </c>
-      <c r="V60" t="s">
-        <v>131</v>
+      <c r="V60" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="Z60">
         <v>42</v>
@@ -2086,7 +2090,10 @@
       <c r="L61">
         <v>41</v>
       </c>
-      <c r="O61" t="s">
+      <c r="M61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N61" t="s">
         <v>102</v>
       </c>
       <c r="Q61">
@@ -2094,680 +2101,1545 @@
       </c>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61">
+      <c r="T61" s="4">
         <v>35</v>
       </c>
-      <c r="V61" t="s">
-        <v>103</v>
+      <c r="V61" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="Z61">
         <v>41</v>
       </c>
     </row>
     <row r="62" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G62" t="s">
-        <v>98</v>
-      </c>
-      <c r="H62" cm="1">
-        <f t="array" ref="H62">SUMPRODUCT(--(ISNUMBER(Q40:Q63) * (NOT(ISTEXT(Q40:Q63))))) + SUMPRODUCT(--(ISNUMBER(T40:T63) * (NOT(ISTEXT(T40:T63)))))</f>
-        <v>42</v>
-      </c>
       <c r="L62">
         <v>40</v>
       </c>
-      <c r="O62" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q62">
+      <c r="N62" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q62" s="19">
         <v>31</v>
       </c>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-      <c r="T62">
+      <c r="T62" s="19">
         <v>34</v>
       </c>
       <c r="V62" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Z62">
         <v>40</v>
       </c>
     </row>
     <row r="63" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G63" t="s">
-        <v>99</v>
-      </c>
-      <c r="H63">
-        <v>13</v>
-      </c>
       <c r="L63">
         <v>39</v>
       </c>
-      <c r="O63" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q63">
+      <c r="N63" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q63" s="19">
         <v>32</v>
       </c>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-      <c r="T63">
+      <c r="T63" s="19">
         <v>33</v>
-      </c>
-      <c r="V63" t="s">
-        <v>132</v>
       </c>
       <c r="Z63">
         <v>39</v>
       </c>
     </row>
     <row r="64" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G64" t="s">
-        <v>110</v>
-      </c>
-      <c r="H64">
+      <c r="W64" t="s">
+        <v>98</v>
+      </c>
+      <c r="X64" cm="1">
+        <f t="array" ref="X64">SUMPRODUCT(--(ISNUMBER(Q40:Q63) * (NOT(ISTEXT(Q40:Q63))))) + SUMPRODUCT(--(ISNUMBER(T40:T63) * (NOT(ISTEXT(T40:T63)))))</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="W65" t="s">
+        <v>99</v>
+      </c>
+      <c r="X65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="W66" t="s">
+        <v>114</v>
+      </c>
+      <c r="X66">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G65" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H65" s="15">
+    <row r="67" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="W67" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="X67" s="15">
         <v>-3</v>
       </c>
     </row>
-    <row r="66" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G66" t="s">
-        <v>108</v>
-      </c>
-      <c r="H66">
+    <row r="68" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="W68" t="s">
+        <v>112</v>
+      </c>
+      <c r="X68">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G67" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H67" s="15">
+    <row r="69" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="W69" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="X69" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="G69" t="s">
+    <row r="71" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="W71" t="s">
         <v>100</v>
       </c>
-      <c r="H69">
-        <f>H62-SUM(H63:H68)</f>
+      <c r="X71">
+        <f>X64-SUM(X65:X70)</f>
         <v>15</v>
       </c>
-      <c r="L69">
-        <v>62</v>
-      </c>
-      <c r="Q69" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z69">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L70">
-        <v>61</v>
-      </c>
-      <c r="O70" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q70" s="19">
-        <v>0</v>
-      </c>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L71">
-        <v>60</v>
-      </c>
-      <c r="O71" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z71">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L72">
-        <v>59</v>
-      </c>
-      <c r="O72" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q72" s="19">
-        <v>2</v>
-      </c>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72">
-        <v>23</v>
-      </c>
-      <c r="U72" t="s">
-        <v>79</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z72">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L73">
-        <v>58</v>
-      </c>
-      <c r="O73" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q73" s="19">
-        <v>3</v>
-      </c>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73">
-        <v>22</v>
-      </c>
-      <c r="U73" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="V73" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z73">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L74">
-        <v>57</v>
-      </c>
-      <c r="O74" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q74">
-        <v>4</v>
-      </c>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74">
-        <v>21</v>
-      </c>
-      <c r="U74" t="s">
-        <v>81</v>
-      </c>
-      <c r="V74" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z74">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="7:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L75">
-        <v>56</v>
-      </c>
-      <c r="O75" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q75">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="N75" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q75" s="19">
+        <v>32</v>
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
-      <c r="T75">
-        <v>20</v>
-      </c>
-      <c r="U75" t="s">
-        <v>82</v>
-      </c>
-      <c r="V75" s="2" t="s">
-        <v>112</v>
+      <c r="T75" s="19">
+        <v>33</v>
       </c>
       <c r="Z75">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="7:26" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L76">
-        <v>55</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="N76" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q76" s="19">
+        <v>31</v>
       </c>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
-      <c r="T76">
-        <v>19</v>
-      </c>
-      <c r="U76" t="s">
-        <v>83</v>
-      </c>
-      <c r="V76" s="14" t="s">
-        <v>26</v>
+      <c r="T76" s="19">
+        <v>34</v>
+      </c>
+      <c r="V76" t="s">
+        <v>110</v>
       </c>
       <c r="Z76">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="7:26" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L77">
-        <v>54</v>
-      </c>
-      <c r="O77" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N77" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q77">
+        <v>30</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
-      <c r="T77">
-        <v>18</v>
-      </c>
-      <c r="U77" t="s">
-        <v>84</v>
-      </c>
-      <c r="V77" s="14" t="s">
+      <c r="T77" s="4">
+        <v>35</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z77">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>42</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N78" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q78">
         <v>29</v>
-      </c>
-      <c r="Z77">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L78">
-        <v>53</v>
-      </c>
-      <c r="O78" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>8</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
-      <c r="T78">
-        <v>17</v>
-      </c>
-      <c r="U78" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>133</v>
+      <c r="T78" s="4">
+        <v>36</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="Z78">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="7:26" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L79">
-        <v>52</v>
-      </c>
-      <c r="O79" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q79" s="4">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N79" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q79">
+        <v>28</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79">
-        <v>16</v>
-      </c>
-      <c r="U79" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="V79" s="19" t="s">
-        <v>134</v>
+        <v>37</v>
+      </c>
+      <c r="V79" t="s">
+        <v>108</v>
       </c>
       <c r="Z79">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="7:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L80">
-        <v>51</v>
-      </c>
-      <c r="O80" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="N80" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="P80" t="s">
+        <v>90</v>
       </c>
       <c r="Q80">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80">
-        <v>15</v>
-      </c>
-      <c r="U80" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="V80" s="19" t="s">
-        <v>119</v>
+        <v>38</v>
+      </c>
+      <c r="U80" t="s">
+        <v>91</v>
+      </c>
+      <c r="V80" t="s">
+        <v>109</v>
       </c>
       <c r="Z80">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L81">
-        <v>50</v>
-      </c>
-      <c r="O81" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q81" s="4">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="N81" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P81" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q81">
+        <v>26</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81">
-        <v>14</v>
-      </c>
-      <c r="U81" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="V81" s="4" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="U81" t="s">
+        <v>92</v>
+      </c>
+      <c r="V81" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="Z81">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L82">
-        <v>49</v>
-      </c>
-      <c r="O82" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q82" s="4">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="N82" t="s">
+        <v>103</v>
+      </c>
+      <c r="P82" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q82">
+        <v>25</v>
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
-      <c r="T82">
-        <v>13</v>
+      <c r="T82" s="4">
+        <v>40</v>
       </c>
       <c r="U82" t="s">
-        <v>51</v>
-      </c>
-      <c r="V82" s="17" t="s">
-        <v>31</v>
+        <v>94</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="Z82">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L83">
-        <v>48</v>
-      </c>
-      <c r="O83" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P83" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q83">
+        <v>24</v>
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
-      <c r="T83" s="3" t="s">
-        <v>49</v>
+      <c r="T83" s="4">
+        <v>41</v>
+      </c>
+      <c r="U83" t="s">
+        <v>93</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="Z83">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L84">
-        <v>47</v>
-      </c>
-      <c r="O84" t="s">
-        <v>103</v>
-      </c>
-      <c r="P84" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q84">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-      <c r="T84">
-        <v>41</v>
-      </c>
-      <c r="U84" t="s">
-        <v>93</v>
-      </c>
-      <c r="V84" s="4" t="s">
-        <v>105</v>
+      <c r="T84" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="Z84">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L85">
-        <v>46</v>
-      </c>
-      <c r="O85" t="s">
-        <v>131</v>
-      </c>
-      <c r="P85" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q85">
-        <v>25</v>
+        <v>49</v>
+      </c>
+      <c r="O85" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>12</v>
       </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
-      <c r="T85">
-        <v>40</v>
+      <c r="T85" s="4">
+        <v>13</v>
       </c>
       <c r="U85" t="s">
-        <v>94</v>
-      </c>
-      <c r="V85" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="V85" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="Z85">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L86">
-        <v>45</v>
-      </c>
-      <c r="O86" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="P86" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q86">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="O86" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>11</v>
       </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
-      <c r="T86" s="4">
-        <v>39</v>
-      </c>
-      <c r="U86" t="s">
-        <v>92</v>
-      </c>
-      <c r="V86" s="16" t="s">
-        <v>96</v>
+      <c r="T86">
+        <v>14</v>
+      </c>
+      <c r="U86" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="Z86">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L87">
-        <v>44</v>
-      </c>
-      <c r="O87" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="P87" t="s">
-        <v>90</v>
+        <v>51</v>
+      </c>
+      <c r="O87" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="Q87">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87">
-        <v>38</v>
-      </c>
-      <c r="U87" t="s">
-        <v>91</v>
-      </c>
-      <c r="V87" s="4" t="s">
-        <v>106</v>
+        <v>15</v>
+      </c>
+      <c r="U87" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="V87" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="Z87">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L88">
-        <v>43</v>
-      </c>
-      <c r="O88" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q88">
-        <v>28</v>
+        <v>52</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>9</v>
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88">
-        <v>37</v>
-      </c>
-      <c r="V88" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="U88" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="V88" s="15"/>
       <c r="Z88">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L89">
-        <v>42</v>
-      </c>
-      <c r="O89" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q89">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="O89" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>8</v>
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89">
-        <v>36</v>
-      </c>
-      <c r="V89" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="U89" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="Z89">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L90">
-        <v>41</v>
-      </c>
-      <c r="O90" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q90">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>7</v>
       </c>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90">
-        <v>35</v>
-      </c>
-      <c r="V90" t="s">
-        <v>125</v>
+        <v>18</v>
+      </c>
+      <c r="U90" t="s">
+        <v>84</v>
+      </c>
+      <c r="V90" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="Z90">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L91">
-        <v>40</v>
-      </c>
-      <c r="O91" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q91">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>6</v>
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91">
-        <v>34</v>
-      </c>
-      <c r="V91" t="s">
-        <v>126</v>
+        <v>19</v>
+      </c>
+      <c r="U91" t="s">
+        <v>83</v>
+      </c>
+      <c r="V91" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="Z91">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L92">
-        <v>39</v>
-      </c>
-      <c r="O92" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q92">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="Q92" s="19">
+        <v>5</v>
       </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92">
+        <v>20</v>
+      </c>
+      <c r="U92" t="s">
+        <v>82</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z92">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L93">
+        <v>57</v>
+      </c>
+      <c r="Q93" s="19">
+        <v>4</v>
+      </c>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93">
+        <v>21</v>
+      </c>
+      <c r="U93" t="s">
+        <v>81</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z93">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L94">
+        <v>58</v>
+      </c>
+      <c r="Q94" s="19">
+        <v>3</v>
+      </c>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94">
+        <v>22</v>
+      </c>
+      <c r="U94" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z94">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L95">
+        <v>59</v>
+      </c>
+      <c r="Q95" s="19">
+        <v>2</v>
+      </c>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95">
+        <v>23</v>
+      </c>
+      <c r="U95" t="s">
+        <v>79</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z95">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L96">
+        <v>60</v>
+      </c>
+      <c r="Q96" s="19">
+        <v>1</v>
+      </c>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z96">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L97">
+        <v>61</v>
+      </c>
+      <c r="Q97" s="19">
+        <v>0</v>
+      </c>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z97">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L98">
+        <v>62</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z98">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L102" t="s">
+        <v>104</v>
+      </c>
+      <c r="O102" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q102" s="19">
         <v>33</v>
       </c>
-      <c r="V92" t="s">
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="19">
+        <v>32</v>
+      </c>
+      <c r="V102" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L103" t="s">
+        <v>103</v>
+      </c>
+      <c r="O103" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q103" s="19">
+        <v>34</v>
+      </c>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="19">
+        <v>31</v>
+      </c>
+      <c r="V103" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L104" t="s">
+        <v>103</v>
+      </c>
+      <c r="M104" t="s">
+        <v>110</v>
+      </c>
+      <c r="O104" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>35</v>
+      </c>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104">
+        <v>30</v>
+      </c>
+      <c r="V104" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L105" t="s">
+        <v>102</v>
+      </c>
+      <c r="M105" t="s">
+        <v>108</v>
+      </c>
+      <c r="O105" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>36</v>
+      </c>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105">
+        <v>29</v>
+      </c>
+      <c r="V105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L106" t="s">
+        <v>102</v>
+      </c>
+      <c r="M106" t="s">
+        <v>109</v>
+      </c>
+      <c r="O106" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q106">
+        <v>37</v>
+      </c>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106">
+        <v>28</v>
+      </c>
+      <c r="V106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="O107" t="s">
+        <v>102</v>
+      </c>
+      <c r="P107" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q107">
+        <v>38</v>
+      </c>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107">
+        <v>27</v>
+      </c>
+      <c r="U107" t="s">
+        <v>90</v>
+      </c>
+      <c r="V107" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="O108" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P108" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>39</v>
+      </c>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108">
+        <v>26</v>
+      </c>
+      <c r="U108" t="s">
+        <v>89</v>
+      </c>
+      <c r="V108" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="O109" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P109" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>40</v>
+      </c>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109">
+        <v>25</v>
+      </c>
+      <c r="U109" t="s">
+        <v>88</v>
+      </c>
+      <c r="V109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="O110" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P110" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>41</v>
+      </c>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110">
+        <v>24</v>
+      </c>
+      <c r="U110" t="s">
+        <v>87</v>
+      </c>
+      <c r="V110" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="Q111" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="O112" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P112" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>13</v>
+      </c>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="4">
+        <v>12</v>
+      </c>
+      <c r="V112" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="O113" t="s">
+        <v>132</v>
+      </c>
+      <c r="P113" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q113">
+        <v>14</v>
+      </c>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="4">
+        <v>11</v>
+      </c>
+      <c r="V113" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="N114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O114" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="P114" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q114">
+        <v>15</v>
+      </c>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114">
+        <v>10</v>
+      </c>
+      <c r="V114" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="N115" t="s">
+        <v>123</v>
+      </c>
+      <c r="O115" s="15"/>
+      <c r="P115" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q115">
+        <v>16</v>
+      </c>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="4">
+        <v>9</v>
+      </c>
+      <c r="V115" t="s">
         <v>127</v>
       </c>
-      <c r="Z92">
+    </row>
+    <row r="116" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="N116" t="s">
+        <v>124</v>
+      </c>
+      <c r="P116" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q116">
+        <v>17</v>
+      </c>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="2">
+        <v>8</v>
+      </c>
+      <c r="V116" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="O117" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P117" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q117">
+        <v>18</v>
+      </c>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="2">
+        <v>7</v>
+      </c>
+      <c r="V117" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="O118" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P118" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q118">
+        <v>19</v>
+      </c>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="2">
+        <v>6</v>
+      </c>
+      <c r="V118" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="O119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P119" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q119">
+        <v>20</v>
+      </c>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="19">
+        <v>5</v>
+      </c>
+      <c r="V119" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="O120" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P120" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q120">
+        <v>21</v>
+      </c>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="19">
+        <v>4</v>
+      </c>
+      <c r="V120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="N121" t="s">
+        <v>133</v>
+      </c>
+      <c r="P121" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q121">
+        <v>22</v>
+      </c>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="19">
+        <v>3</v>
+      </c>
+      <c r="V121" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="O122" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P122" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q122">
+        <v>23</v>
+      </c>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="19">
+        <v>2</v>
+      </c>
+      <c r="V122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="Q123" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="19">
+        <v>1</v>
+      </c>
+      <c r="V123" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="19">
+        <v>0</v>
+      </c>
+      <c r="V124" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="Q125" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O129" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q129" s="4">
+        <v>33</v>
+      </c>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129">
+        <v>32</v>
+      </c>
+      <c r="V129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O130" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q130" s="4">
+        <v>34</v>
+      </c>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130">
+        <v>31</v>
+      </c>
+      <c r="V130" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O131" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q131" s="4">
+        <v>35</v>
+      </c>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131">
+        <v>30</v>
+      </c>
+      <c r="V131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O132" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q132" s="4">
+        <v>36</v>
+      </c>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132">
+        <v>29</v>
+      </c>
+      <c r="V132" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O133" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q133" s="4">
+        <v>37</v>
+      </c>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133">
+        <v>28</v>
+      </c>
+      <c r="V133" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O134" t="s">
+        <v>137</v>
+      </c>
+      <c r="P134" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q134">
+        <v>38</v>
+      </c>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="16">
+        <v>27</v>
+      </c>
+      <c r="U134" t="s">
+        <v>90</v>
+      </c>
+      <c r="V134" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="135" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O135" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P135" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q135">
         <v>39</v>
       </c>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="16">
+        <v>26</v>
+      </c>
+      <c r="U135" t="s">
+        <v>89</v>
+      </c>
+      <c r="V135" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O136" t="s">
+        <v>136</v>
+      </c>
+      <c r="P136" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q136">
+        <v>40</v>
+      </c>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136">
+        <v>25</v>
+      </c>
+      <c r="U136" t="s">
+        <v>88</v>
+      </c>
+      <c r="V136" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O137" t="s">
+        <v>135</v>
+      </c>
+      <c r="P137" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q137">
+        <v>41</v>
+      </c>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137">
+        <v>24</v>
+      </c>
+      <c r="U137" t="s">
+        <v>87</v>
+      </c>
+      <c r="V137" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O138" s="27"/>
+      <c r="Q138" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V138" s="27"/>
+    </row>
+    <row r="139" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O139" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P139" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q139">
+        <v>13</v>
+      </c>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139">
+        <v>12</v>
+      </c>
+      <c r="V139" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O140" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="P140" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q140">
+        <v>14</v>
+      </c>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140">
+        <v>11</v>
+      </c>
+      <c r="V140" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M141" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P141" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q141">
+        <v>15</v>
+      </c>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141">
+        <v>10</v>
+      </c>
+      <c r="V141" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O142" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="P142" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q142">
+        <v>16</v>
+      </c>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142">
+        <v>9</v>
+      </c>
+      <c r="V142" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="143" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O143" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="P143" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q143">
+        <v>17</v>
+      </c>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="2">
+        <v>8</v>
+      </c>
+      <c r="V143" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="O144" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P144" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q144">
+        <v>18</v>
+      </c>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="2">
+        <v>7</v>
+      </c>
+      <c r="V144" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O145" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P145" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q145">
+        <v>19</v>
+      </c>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="2">
+        <v>6</v>
+      </c>
+      <c r="V145" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O146" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P146" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q146">
+        <v>20</v>
+      </c>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="30">
+        <v>5</v>
+      </c>
+      <c r="V146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O147" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P147" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q147">
+        <v>21</v>
+      </c>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="30">
+        <v>4</v>
+      </c>
+      <c r="V147" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O148" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="P148" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q148">
+        <v>22</v>
+      </c>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="30">
+        <v>3</v>
+      </c>
+      <c r="V148" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="149" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O149" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P149" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q149">
+        <v>23</v>
+      </c>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="30">
+        <v>2</v>
+      </c>
+      <c r="V149" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="Q150" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="16">
+        <v>1</v>
+      </c>
+      <c r="V150" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="V151" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="Q152" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L75:Z98">
+    <sortCondition ref="L75:L98"/>
+  </sortState>
   <mergeCells count="35">
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="J20:J21"/>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -5,34 +5,45 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csaba\Documents\PlatformIO\Projects\mcguitarpedal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\mcguitarpedal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBF7A6C-F65C-4E1E-BECC-293207B90A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDC37EB-ADBE-4FA7-A54D-01B5D9D19130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -47,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="140">
   <si>
     <t>Audio Shield</t>
   </si>
@@ -464,6 +475,9 @@
   </si>
   <si>
     <t>NC(MISO1)</t>
+  </si>
+  <si>
+    <t>LED_STR</t>
   </si>
 </sst>
 </file>
@@ -661,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -698,25 +712,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1154,7 +1166,7 @@
   <dimension ref="G10:AA152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M140" sqref="M140"/>
+      <selection activeCell="O149" sqref="O149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,10 +1196,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1199,90 +1211,90 @@
         <v>3</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="8">
         <v>23</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="24"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="8">
         <v>21</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="24"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G17" s="24"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="25" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8">
         <v>7</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="25" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -1290,25 +1302,25 @@
       </c>
     </row>
     <row r="19" spans="7:11" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="24"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="24"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="8">
         <v>8</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="25" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -1316,12 +1328,12 @@
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="24"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="24"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1357,124 +1369,124 @@
       </c>
     </row>
     <row r="24" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="28">
         <v>13</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="22"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="28">
         <v>12</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="22"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="28">
         <v>11</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="22"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="28">
         <v>10</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="22"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="28">
         <v>6</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="7:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="22"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="7:27" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="G34" s="7" t="s">
@@ -2472,7 +2484,7 @@
       <c r="U85" t="s">
         <v>51</v>
       </c>
-      <c r="V85" s="26" t="s">
+      <c r="V85" s="14" t="s">
         <v>31</v>
       </c>
       <c r="Z85">
@@ -2958,7 +2970,7 @@
       </c>
     </row>
     <row r="112" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="O112" s="26" t="s">
+      <c r="O112" s="14" t="s">
         <v>31</v>
       </c>
       <c r="P112" t="s">
@@ -3376,7 +3388,7 @@
       </c>
     </row>
     <row r="138" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O138" s="27"/>
+      <c r="O138" s="22"/>
       <c r="Q138" s="3" t="s">
         <v>49</v>
       </c>
@@ -3385,10 +3397,10 @@
       <c r="T138" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="V138" s="27"/>
+      <c r="V138" s="22"/>
     </row>
     <row r="139" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O139" s="29" t="s">
+      <c r="O139" s="24" t="s">
         <v>31</v>
       </c>
       <c r="P139" t="s">
@@ -3407,10 +3419,10 @@
       </c>
     </row>
     <row r="140" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O140" s="29" t="s">
+      <c r="O140" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="P140" s="30" t="s">
+      <c r="P140" t="s">
         <v>77</v>
       </c>
       <c r="Q140">
@@ -3426,13 +3438,13 @@
       </c>
     </row>
     <row r="141" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M141" s="28" t="s">
+      <c r="M141" s="23" t="s">
         <v>121</v>
       </c>
       <c r="O141" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P141" s="30" t="s">
+      <c r="P141" t="s">
         <v>78</v>
       </c>
       <c r="Q141">
@@ -3535,7 +3547,7 @@
       </c>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
-      <c r="T146" s="30">
+      <c r="T146">
         <v>5</v>
       </c>
       <c r="V146" t="s">
@@ -3554,7 +3566,7 @@
       </c>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
-      <c r="T147" s="30">
+      <c r="T147">
         <v>4</v>
       </c>
       <c r="V147" t="s">
@@ -3562,10 +3574,10 @@
       </c>
     </row>
     <row r="148" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O148" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="P148" s="29" t="s">
+      <c r="O148" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="P148" s="24" t="s">
         <v>80</v>
       </c>
       <c r="Q148">
@@ -3573,7 +3585,7 @@
       </c>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
-      <c r="T148" s="30">
+      <c r="T148">
         <v>3</v>
       </c>
       <c r="V148" t="s">
@@ -3592,7 +3604,7 @@
       </c>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
-      <c r="T149" s="30">
+      <c r="T149">
         <v>2</v>
       </c>
       <c r="V149" t="s">
@@ -3641,6 +3653,26 @@
     <sortCondition ref="L75:L98"/>
   </sortState>
   <mergeCells count="35">
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J10:J11"/>
@@ -3656,26 +3688,6 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\mcguitarpedal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDC37EB-ADBE-4FA7-A54D-01B5D9D19130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D452B-C145-492A-A07D-DED548068B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
   </bookViews>
@@ -717,16 +717,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1165,7 +1165,7 @@
   </sheetPr>
   <dimension ref="G10:AA152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K127" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L127" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O149" sqref="O149"/>
     </sheetView>
   </sheetViews>
@@ -1196,10 +1196,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1211,90 +1211,90 @@
         <v>3</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="8">
         <v>23</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="25"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="8">
         <v>21</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="25"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G17" s="25"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="27" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8">
         <v>7</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -1302,25 +1302,25 @@
       </c>
     </row>
     <row r="19" spans="7:11" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="25"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="25"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="27" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="8">
         <v>8</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="27" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -1328,12 +1328,12 @@
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="25"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1369,124 +1369,124 @@
       </c>
     </row>
     <row r="24" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="26">
         <v>13</v>
       </c>
-      <c r="I24" s="28"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="27"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="26">
         <v>12</v>
       </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="27"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="26">
         <v>11</v>
       </c>
-      <c r="I28" s="28"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="27"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="26">
         <v>10</v>
       </c>
-      <c r="I30" s="28"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="27"/>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="26">
         <v>6</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="7:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="27"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="7:27" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="G34" s="7" t="s">
@@ -3653,26 +3653,6 @@
     <sortCondition ref="L75:L98"/>
   </sortState>
   <mergeCells count="35">
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J10:J11"/>
@@ -3688,6 +3668,26 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="J18:J19"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\mcguitarpedal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D452B-C145-492A-A07D-DED548068B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3303AA2E-B222-435F-A8A3-A6CDEA9C24BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="143">
   <si>
     <t>Audio Shield</t>
   </si>
@@ -478,6 +478,15 @@
   </si>
   <si>
     <t>LED_STR</t>
+  </si>
+  <si>
+    <t>LED_PWM</t>
+  </si>
+  <si>
+    <t>BACKLIGHT_PWM</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -717,16 +726,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -763,7 +772,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>236718</xdr:colOff>
+      <xdr:colOff>244338</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>37461</xdr:rowOff>
     </xdr:to>
@@ -806,9 +815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>70708</xdr:colOff>
+      <xdr:colOff>59278</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>184851</xdr:rowOff>
+      <xdr:rowOff>173421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1165,8 +1174,8 @@
   </sheetPr>
   <dimension ref="G10:AA152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L127" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O149" sqref="O149"/>
+    <sheetView tabSelected="1" topLeftCell="L123" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M137" sqref="M137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,10 +1205,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1211,90 +1220,90 @@
         <v>3</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="8">
         <v>23</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="27"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="8">
         <v>21</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="27"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G17" s="27"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="25" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8">
         <v>7</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="25" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -1302,25 +1311,25 @@
       </c>
     </row>
     <row r="19" spans="7:11" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="27"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="8">
         <v>8</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="25" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -1328,12 +1337,12 @@
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="27"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="27"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1369,124 +1378,124 @@
       </c>
     </row>
     <row r="24" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="28">
         <v>13</v>
       </c>
-      <c r="I24" s="26"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="25"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="28">
         <v>12</v>
       </c>
-      <c r="I26" s="26"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="25"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="28">
         <v>11</v>
       </c>
-      <c r="I28" s="26"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="25"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="28">
         <v>10</v>
       </c>
-      <c r="I30" s="26"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="25"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="28">
         <v>6</v>
       </c>
-      <c r="I32" s="26"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="7:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="25"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="7:27" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="G34" s="7" t="s">
@@ -3300,8 +3309,8 @@
       </c>
     </row>
     <row r="134" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O134" t="s">
-        <v>137</v>
+      <c r="O134" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="P134" t="s">
         <v>91</v>
@@ -3366,6 +3375,9 @@
       </c>
     </row>
     <row r="137" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M137" t="s">
+        <v>142</v>
+      </c>
       <c r="O137" t="s">
         <v>135</v>
       </c>
@@ -3384,7 +3396,7 @@
         <v>87</v>
       </c>
       <c r="V137" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="13:22" x14ac:dyDescent="0.3">
@@ -3420,7 +3432,7 @@
     </row>
     <row r="140" spans="13:22" x14ac:dyDescent="0.3">
       <c r="O140" s="24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P140" t="s">
         <v>77</v>
@@ -3475,7 +3487,7 @@
         <v>9</v>
       </c>
       <c r="V142" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="13:22" x14ac:dyDescent="0.3">
@@ -3607,8 +3619,8 @@
       <c r="T149">
         <v>2</v>
       </c>
-      <c r="V149" t="s">
-        <v>127</v>
+      <c r="V149" s="24" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="15:22" x14ac:dyDescent="0.3">
@@ -3653,6 +3665,26 @@
     <sortCondition ref="L75:L98"/>
   </sortState>
   <mergeCells count="35">
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J10:J11"/>
@@ -3668,26 +3700,6 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\mcguitarpedal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3303AA2E-B222-435F-A8A3-A6CDEA9C24BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266560E5-CBD9-41A1-BC61-E9256C4BD8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
   </bookViews>
@@ -486,7 +486,7 @@
     <t>BACKLIGHT_PWM</t>
   </si>
   <si>
-    <t>s</t>
+    <t>q</t>
   </si>
 </sst>
 </file>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\mcguitarpedal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266560E5-CBD9-41A1-BC61-E9256C4BD8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0737CCAF-1520-4847-A74E-4E1E18D0A72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
   </bookViews>
@@ -726,16 +726,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1174,8 +1174,8 @@
   </sheetPr>
   <dimension ref="G10:AA152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L123" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M137" sqref="M137"/>
+    <sheetView tabSelected="1" topLeftCell="K123" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N136" sqref="N136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,10 +1205,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1220,90 +1220,90 @@
         <v>3</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="8">
         <v>23</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="25"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="8">
         <v>21</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="25"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G17" s="25"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="27" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8">
         <v>7</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -1311,25 +1311,25 @@
       </c>
     </row>
     <row r="19" spans="7:11" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="25"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="25"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="27" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="8">
         <v>8</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="27" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -1337,12 +1337,12 @@
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="25"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1378,124 +1378,124 @@
       </c>
     </row>
     <row r="24" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="26">
         <v>13</v>
       </c>
-      <c r="I24" s="28"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="27"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="26">
         <v>12</v>
       </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="27"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="26">
         <v>11</v>
       </c>
-      <c r="I28" s="28"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="27"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="26">
         <v>10</v>
       </c>
-      <c r="I30" s="28"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="27"/>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="26">
         <v>6</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="7:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="27"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="7:27" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="G34" s="7" t="s">
@@ -3309,8 +3309,8 @@
       </c>
     </row>
     <row r="134" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O134" s="24" t="s">
-        <v>132</v>
+      <c r="O134" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="P134" t="s">
         <v>91</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="140" spans="13:22" x14ac:dyDescent="0.3">
       <c r="O140" s="24" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P140" t="s">
         <v>77</v>
@@ -3453,8 +3453,8 @@
       <c r="M141" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="O141" s="2" t="s">
-        <v>111</v>
+      <c r="O141" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="P141" t="s">
         <v>78</v>
@@ -3472,8 +3472,8 @@
       </c>
     </row>
     <row r="142" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O142" s="19" t="s">
-        <v>123</v>
+      <c r="O142" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="P142" s="19" t="s">
         <v>86</v>
@@ -3665,26 +3665,6 @@
     <sortCondition ref="L75:L98"/>
   </sortState>
   <mergeCells count="35">
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J10:J11"/>
@@ -3700,6 +3680,26 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="J18:J19"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\mcguitarpedal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0737CCAF-1520-4847-A74E-4E1E18D0A72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D94F65A-6B29-490C-A5BE-0ED7D72B3351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="143">
   <si>
     <t>Audio Shield</t>
   </si>
@@ -726,16 +726,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -841,6 +841,49 @@
         <a:xfrm>
           <a:off x="12532949" y="1865324"/>
           <a:ext cx="4547353" cy="4777016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>549966</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>13257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>338142</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>43552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5F8355-9082-427C-BEF9-6DF999C0BCD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="4424" r="6822"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="21479984" y="29037308"/>
+          <a:ext cx="5039617" cy="5884176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1172,10 +1215,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="G10:AA152"/>
+  <dimension ref="G10:AA178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K123" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N136" sqref="N136"/>
+    <sheetView tabSelected="1" topLeftCell="M151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X161" sqref="X161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,10 +1248,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1220,90 +1263,90 @@
         <v>3</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="8">
         <v>23</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="27"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="8">
         <v>21</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="27"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G17" s="27"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="25" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8">
         <v>7</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="25" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -1311,25 +1354,25 @@
       </c>
     </row>
     <row r="19" spans="7:11" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="27"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="8">
         <v>8</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="25" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -1337,12 +1380,12 @@
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="27"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="27"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1378,124 +1421,124 @@
       </c>
     </row>
     <row r="24" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="28">
         <v>13</v>
       </c>
-      <c r="I24" s="26"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="25"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="28">
         <v>12</v>
       </c>
-      <c r="I26" s="26"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="25"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="28">
         <v>11</v>
       </c>
-      <c r="I28" s="26"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="25"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="28">
         <v>10</v>
       </c>
-      <c r="I30" s="26"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="25"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="28">
         <v>6</v>
       </c>
-      <c r="I32" s="26"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="7:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="25"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="7:27" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="G34" s="7" t="s">
@@ -3660,11 +3703,457 @@
         <v>49</v>
       </c>
     </row>
+    <row r="155" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O155" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q155" s="4">
+        <v>33</v>
+      </c>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155">
+        <v>32</v>
+      </c>
+      <c r="V155" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O156" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q156" s="4">
+        <v>34</v>
+      </c>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156">
+        <v>31</v>
+      </c>
+      <c r="V156" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O157" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q157" s="4">
+        <v>35</v>
+      </c>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157">
+        <v>30</v>
+      </c>
+      <c r="V157" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O158" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q158" s="4">
+        <v>36</v>
+      </c>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158">
+        <v>29</v>
+      </c>
+      <c r="V158" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="159" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O159" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q159" s="4">
+        <v>37</v>
+      </c>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159">
+        <v>28</v>
+      </c>
+      <c r="V159" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O160" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P160" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q160">
+        <v>38</v>
+      </c>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="16">
+        <v>27</v>
+      </c>
+      <c r="U160" t="s">
+        <v>90</v>
+      </c>
+      <c r="V160" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="161" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O161" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P161" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q161">
+        <v>39</v>
+      </c>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="16">
+        <v>26</v>
+      </c>
+      <c r="U161" t="s">
+        <v>89</v>
+      </c>
+      <c r="V161" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="162" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O162" t="s">
+        <v>136</v>
+      </c>
+      <c r="P162" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q162">
+        <v>40</v>
+      </c>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162">
+        <v>25</v>
+      </c>
+      <c r="U162" t="s">
+        <v>88</v>
+      </c>
+      <c r="V162" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="163" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O163" t="s">
+        <v>135</v>
+      </c>
+      <c r="P163" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q163">
+        <v>41</v>
+      </c>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163">
+        <v>24</v>
+      </c>
+      <c r="U163" t="s">
+        <v>87</v>
+      </c>
+      <c r="V163" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="164" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O164" s="22"/>
+      <c r="Q164" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V164" s="22"/>
+    </row>
+    <row r="165" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O165" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P165" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q165">
+        <v>13</v>
+      </c>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165">
+        <v>12</v>
+      </c>
+      <c r="V165" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O166" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="P166" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q166">
+        <v>14</v>
+      </c>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166">
+        <v>11</v>
+      </c>
+      <c r="V166" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="167" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O167" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="P167" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q167">
+        <v>15</v>
+      </c>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167">
+        <v>10</v>
+      </c>
+      <c r="V167" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O168" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P168" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q168">
+        <v>16</v>
+      </c>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168">
+        <v>9</v>
+      </c>
+      <c r="V168" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="169" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O169" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="P169" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q169">
+        <v>17</v>
+      </c>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="2">
+        <v>8</v>
+      </c>
+      <c r="V169" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O170" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P170" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q170">
+        <v>18</v>
+      </c>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="2">
+        <v>7</v>
+      </c>
+      <c r="V170" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O171" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P171" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q171">
+        <v>19</v>
+      </c>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="2">
+        <v>6</v>
+      </c>
+      <c r="V171" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O172" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P172" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q172">
+        <v>20</v>
+      </c>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172">
+        <v>5</v>
+      </c>
+      <c r="V172" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O173" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P173" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q173">
+        <v>21</v>
+      </c>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173">
+        <v>4</v>
+      </c>
+      <c r="V173" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="174" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O174" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="P174" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q174">
+        <v>22</v>
+      </c>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174">
+        <v>3</v>
+      </c>
+      <c r="V174" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="175" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="O175" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P175" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q175">
+        <v>23</v>
+      </c>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="V175" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176" spans="15:22" x14ac:dyDescent="0.3">
+      <c r="Q176" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="16">
+        <v>1</v>
+      </c>
+      <c r="V176" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="V177" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="Q178" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L75:Z98">
     <sortCondition ref="L75:L98"/>
   </sortState>
   <mergeCells count="35">
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J10:J11"/>
@@ -3680,26 +4169,6 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\mcguitarpedal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D94F65A-6B29-490C-A5BE-0ED7D72B3351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE3884A-ACFF-47BE-AF8A-CD8A51896956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="161">
   <si>
     <t>Audio Shield</t>
   </si>
@@ -487,13 +487,67 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>BACKLIGHT</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>MIX</t>
+  </si>
+  <si>
+    <t>ENC_2</t>
+  </si>
+  <si>
+    <t>ENC_1</t>
+  </si>
+  <si>
+    <t>ENC_3_R</t>
+  </si>
+  <si>
+    <t>ENC_3_L</t>
+  </si>
+  <si>
+    <t>ENC_3_BTN</t>
+  </si>
+  <si>
+    <t>ENC_2_BTN</t>
+  </si>
+  <si>
+    <t>ENC_1_BTN</t>
+  </si>
+  <si>
+    <t>MISO1 (ALT)</t>
+  </si>
+  <si>
+    <t>Kijelző</t>
+  </si>
+  <si>
+    <t>Audio board</t>
+  </si>
+  <si>
+    <t>HCT595</t>
+  </si>
+  <si>
+    <t>HC148</t>
+  </si>
+  <si>
+    <t>TOUCH_IRQ</t>
+  </si>
+  <si>
+    <t>SW_BYPASS</t>
+  </si>
+  <si>
+    <t>Perifériák</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +634,26 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -684,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -726,18 +800,104 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,16 +925,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>21331</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>298713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>244338</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>37461</xdr:rowOff>
+      <xdr:rowOff>37462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -808,16 +968,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>98588</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>201658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>59278</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>162326</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>173421</xdr:rowOff>
+      <xdr:rowOff>50328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -851,16 +1011,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>549966</xdr:colOff>
       <xdr:row>152</xdr:row>
       <xdr:rowOff>13257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>338142</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>43552</xdr:rowOff>
+      <xdr:rowOff>43553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -884,6 +1044,49 @@
         <a:xfrm rot="5400000">
           <a:off x="21479984" y="29037308"/>
           <a:ext cx="5039617" cy="5884176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>5257</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>170578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7291</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>161700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DC7BBB-094C-4D3A-8F6B-206C83E9EB7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="4424" t="37904" r="6822" b="39630"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="14952539" y="31493261"/>
+          <a:ext cx="4814913" cy="1260991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1215,10 +1418,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="G10:AA178"/>
+  <dimension ref="G10:AC178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X161" sqref="X161"/>
+    <sheetView tabSelected="1" topLeftCell="L150" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N154" sqref="N154:X179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,19 +1431,21 @@
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="22.44140625" customWidth="1"/>
     <col min="11" max="11" width="49.21875" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="36" customWidth="1"/>
+    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" customWidth="1"/>
+    <col min="22" max="22" width="4.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.77734375" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="7:11" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="G10" s="5" t="s">
         <v>0</v>
       </c>
@@ -1248,14 +1453,16 @@
         <v>2</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="7:11" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+    </row>
+    <row r="11" spans="7:13" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1263,134 +1470,156 @@
         <v>3</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G12" s="25" t="s">
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+    </row>
+    <row r="12" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G12" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="8">
         <v>23</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="25"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+    </row>
+    <row r="13" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G13" s="27"/>
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G14" s="25" t="s">
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+    </row>
+    <row r="14" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G14" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="8">
         <v>21</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="25"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+    </row>
+    <row r="15" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G15" s="27"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G16" s="25" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+    </row>
+    <row r="16" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G16" s="27" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G17" s="25"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G17" s="27"/>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G18" s="25" t="s">
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+    </row>
+    <row r="18" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G18" s="27" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8">
         <v>7</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="7:11" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="25"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+    </row>
+    <row r="19" spans="7:13" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="27"/>
       <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="25"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G20" s="25" t="s">
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+    </row>
+    <row r="20" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G20" s="27" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="8">
         <v>8</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="27" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="25"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G21" s="27"/>
       <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+    </row>
+    <row r="22" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1404,8 +1633,10 @@
       <c r="K22" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+    </row>
+    <row r="23" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1419,128 +1650,150 @@
       <c r="K23" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G24" s="27" t="s">
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+    </row>
+    <row r="24" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="26">
         <v>13</v>
       </c>
-      <c r="I24" s="28"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+    </row>
+    <row r="25" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G26" s="27" t="s">
+      <c r="K25" s="25"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+    </row>
+    <row r="26" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="26">
         <v>12</v>
       </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+    </row>
+    <row r="27" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G28" s="27" t="s">
+      <c r="K27" s="25"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+    </row>
+    <row r="28" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G28" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="26">
         <v>11</v>
       </c>
-      <c r="I28" s="28"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+    </row>
+    <row r="29" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G30" s="27" t="s">
+      <c r="K29" s="25"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+    </row>
+    <row r="30" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G30" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="26">
         <v>10</v>
       </c>
-      <c r="I30" s="28"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+    </row>
+    <row r="31" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="7:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G32" s="27" t="s">
+      <c r="K31" s="25"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+    </row>
+    <row r="32" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G32" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="26">
         <v>6</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="7:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+    </row>
+    <row r="33" spans="7:29" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" spans="7:27" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="K33" s="25"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+    </row>
+    <row r="34" spans="7:29" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="G34" s="7" t="s">
         <v>45</v>
       </c>
@@ -1554,8 +1807,10 @@
       <c r="K34" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="7:27" x14ac:dyDescent="0.3">
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+    </row>
+    <row r="40" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G40" s="12" t="s">
         <v>101</v>
       </c>
@@ -1565,22 +1820,22 @@
       <c r="I40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>62</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="S40" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="3" t="s">
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="Z40">
+      <c r="AB40">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
         <v>54</v>
       </c>
@@ -1590,45 +1845,45 @@
       <c r="I41" t="s">
         <v>56</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>61</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="S41" s="31">
         <v>0</v>
       </c>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="3" t="s">
+      <c r="U41" s="1"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA41">
+      <c r="AC41">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
         <v>49</v>
       </c>
       <c r="H42" t="s">
         <v>49</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>60</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="S42" s="31">
         <v>1</v>
       </c>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="3" t="s">
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="Z42">
+      <c r="AB42">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
         <v>57</v>
       </c>
@@ -1638,53 +1893,53 @@
       <c r="I43" t="s">
         <v>58</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>59</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="S43" s="31">
         <v>2</v>
       </c>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43">
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="29">
         <v>23</v>
       </c>
-      <c r="U43" t="s">
+      <c r="W43" t="s">
         <v>79</v>
       </c>
-      <c r="V43" s="2" t="s">
+      <c r="X43" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z43">
+      <c r="AB43">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
         <v>59</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>58</v>
       </c>
-      <c r="Q44" s="19">
+      <c r="S44" s="31">
         <v>3</v>
       </c>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44">
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="29">
         <v>22</v>
       </c>
-      <c r="U44" s="19" t="s">
+      <c r="W44" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Z44">
+      <c r="AB44">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
         <v>61</v>
       </c>
@@ -1694,87 +1949,87 @@
       <c r="I45" t="s">
         <v>62</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>57</v>
       </c>
-      <c r="Q45" s="19">
+      <c r="S45" s="31">
         <v>4</v>
       </c>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45">
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="29">
         <v>21</v>
       </c>
-      <c r="U45" t="s">
+      <c r="W45" t="s">
         <v>81</v>
       </c>
-      <c r="V45" s="2" t="s">
+      <c r="X45" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Z45">
+      <c r="AB45">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G46" t="s">
         <v>63</v>
       </c>
       <c r="H46" t="s">
         <v>64</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>56</v>
       </c>
-      <c r="Q46" s="19">
+      <c r="S46" s="31">
         <v>5</v>
       </c>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46">
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="29">
         <v>20</v>
       </c>
-      <c r="U46" t="s">
+      <c r="W46" t="s">
         <v>82</v>
       </c>
-      <c r="V46" s="2" t="s">
+      <c r="X46" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Z46">
+      <c r="AB46">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>31</v>
       </c>
       <c r="H47" t="s">
         <v>65</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>55</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="Q47" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="S47" s="32">
         <v>6</v>
       </c>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47">
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="29">
         <v>19</v>
       </c>
-      <c r="U47" t="s">
+      <c r="W47" t="s">
         <v>83</v>
       </c>
-      <c r="V47" s="14" t="s">
+      <c r="X47" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Z47">
+      <c r="AB47">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>51</v>
       </c>
@@ -1784,87 +2039,87 @@
       <c r="I48" t="s">
         <v>66</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>54</v>
       </c>
-      <c r="O48" s="13" t="s">
+      <c r="Q48" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="S48" s="32">
         <v>7</v>
       </c>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48">
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="29">
         <v>18</v>
       </c>
-      <c r="U48" t="s">
+      <c r="W48" t="s">
         <v>84</v>
       </c>
-      <c r="V48" s="14" t="s">
+      <c r="X48" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Z48">
+      <c r="AB48">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G49" t="s">
         <v>67</v>
       </c>
       <c r="H49" t="s">
         <v>68</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>53</v>
       </c>
-      <c r="O49" s="13" t="s">
+      <c r="Q49" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="S49" s="32">
         <v>8</v>
       </c>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49">
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="29">
         <v>17</v>
       </c>
-      <c r="U49" s="19" t="s">
+      <c r="W49" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Z49">
+      <c r="AB49">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G50" t="s">
         <v>69</v>
       </c>
       <c r="H50" t="s">
         <v>65</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>52</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="P50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="S50" s="33">
         <v>9</v>
       </c>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50">
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="29">
         <v>16</v>
       </c>
-      <c r="U50" s="19" t="s">
+      <c r="W50" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="Z50">
+      <c r="AB50">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
         <v>70</v>
       </c>
@@ -1874,90 +2129,90 @@
       <c r="I51" t="s">
         <v>71</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>51</v>
       </c>
-      <c r="O51" s="13" t="s">
+      <c r="Q51" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Q51">
+      <c r="S51" s="29">
         <v>10</v>
       </c>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51">
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="29">
         <v>15</v>
       </c>
-      <c r="U51" s="19" t="s">
+      <c r="W51" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="V51" s="20" t="s">
+      <c r="X51" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="Z51">
+      <c r="AB51">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>72</v>
       </c>
       <c r="H52" t="s">
         <v>64</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>50</v>
       </c>
-      <c r="O52" s="13" t="s">
+      <c r="Q52" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="S52" s="33">
         <v>11</v>
       </c>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52">
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="29">
         <v>14</v>
       </c>
-      <c r="U52" s="19" t="s">
+      <c r="W52" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="Z52">
+      <c r="AB52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>73</v>
       </c>
       <c r="H53" t="s">
         <v>68</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>49</v>
       </c>
-      <c r="O53" s="13" t="s">
+      <c r="Q53" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="S53" s="33">
         <v>12</v>
       </c>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="4">
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="33">
         <v>13</v>
       </c>
-      <c r="U53" t="s">
+      <c r="W53" t="s">
         <v>51</v>
       </c>
-      <c r="V53" s="17" t="s">
+      <c r="X53" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="Z53">
+      <c r="AB53">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G54" t="s">
         <v>74</v>
       </c>
@@ -1967,2193 +2222,2194 @@
       <c r="I54" t="s">
         <v>75</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>48</v>
       </c>
-      <c r="Q54" s="3" t="s">
+      <c r="S54" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="3" t="s">
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="Z54">
+      <c r="AB54">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L55">
+    <row r="55" spans="7:28" x14ac:dyDescent="0.3">
+      <c r="N55">
         <v>47</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="Q55" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="P55" t="s">
+      <c r="R55" t="s">
         <v>87</v>
       </c>
-      <c r="Q55">
+      <c r="S55" s="29">
         <v>24</v>
       </c>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="4">
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="33">
         <v>41</v>
       </c>
-      <c r="U55" t="s">
+      <c r="W55" t="s">
         <v>93</v>
       </c>
-      <c r="V55" s="4" t="s">
+      <c r="X55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Z55">
+      <c r="AB55">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G56" t="s">
         <v>120</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>46</v>
       </c>
-      <c r="N56" t="s">
+      <c r="P56" t="s">
         <v>103</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
         <v>88</v>
       </c>
-      <c r="Q56">
+      <c r="S56" s="29">
         <v>25</v>
       </c>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="4">
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="33">
         <v>40</v>
       </c>
-      <c r="U56" t="s">
+      <c r="W56" t="s">
         <v>94</v>
       </c>
-      <c r="V56" s="4" t="s">
+      <c r="X56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Z56">
+      <c r="AB56">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G57" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>45</v>
       </c>
-      <c r="N57" s="16" t="s">
+      <c r="P57" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="P57" t="s">
+      <c r="R57" t="s">
         <v>89</v>
       </c>
-      <c r="Q57">
+      <c r="S57" s="29">
         <v>26</v>
       </c>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57">
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="29">
         <v>39</v>
       </c>
-      <c r="U57" t="s">
+      <c r="W57" t="s">
         <v>92</v>
       </c>
-      <c r="V57" s="16" t="s">
+      <c r="X57" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="Z57">
+      <c r="AB57">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L58">
+    <row r="58" spans="7:28" x14ac:dyDescent="0.3">
+      <c r="N58">
         <v>44</v>
       </c>
-      <c r="N58" s="16" t="s">
+      <c r="P58" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="P58" t="s">
+      <c r="R58" t="s">
         <v>90</v>
       </c>
-      <c r="Q58">
+      <c r="S58" s="29">
         <v>27</v>
       </c>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58">
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="29">
         <v>38</v>
       </c>
-      <c r="U58" t="s">
+      <c r="W58" t="s">
         <v>91</v>
       </c>
-      <c r="V58" t="s">
+      <c r="X58" t="s">
         <v>109</v>
       </c>
-      <c r="Z58">
+      <c r="AB58">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L59">
+    <row r="59" spans="7:28" x14ac:dyDescent="0.3">
+      <c r="N59">
         <v>43</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="O59" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N59" t="s">
+      <c r="P59" t="s">
         <v>104</v>
       </c>
-      <c r="Q59">
+      <c r="S59" s="29">
         <v>28</v>
       </c>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59">
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="29">
         <v>37</v>
       </c>
-      <c r="V59" t="s">
+      <c r="X59" t="s">
         <v>108</v>
       </c>
-      <c r="Z59">
+      <c r="AB59">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L60">
+    <row r="60" spans="7:28" x14ac:dyDescent="0.3">
+      <c r="N60">
         <v>42</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="O60" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N60" t="s">
+      <c r="P60" t="s">
         <v>102</v>
       </c>
-      <c r="Q60">
+      <c r="S60" s="29">
         <v>29</v>
       </c>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="4">
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="33">
         <v>36</v>
       </c>
-      <c r="V60" s="4" t="s">
+      <c r="X60" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Z60">
+      <c r="AB60">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L61">
+    <row r="61" spans="7:28" x14ac:dyDescent="0.3">
+      <c r="N61">
         <v>41</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="O61" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N61" t="s">
+      <c r="P61" t="s">
         <v>102</v>
       </c>
-      <c r="Q61">
+      <c r="S61" s="29">
         <v>30</v>
       </c>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="4">
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="33">
         <v>35</v>
       </c>
-      <c r="V61" s="4" t="s">
+      <c r="X61" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z61">
+      <c r="AB61">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L62">
+    <row r="62" spans="7:28" x14ac:dyDescent="0.3">
+      <c r="N62">
         <v>40</v>
       </c>
-      <c r="N62" s="21" t="s">
+      <c r="P62" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="Q62" s="19">
+      <c r="S62" s="31">
         <v>31</v>
       </c>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="19">
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="31">
         <v>34</v>
       </c>
-      <c r="V62" t="s">
+      <c r="X62" t="s">
         <v>110</v>
       </c>
-      <c r="Z62">
+      <c r="AB62">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="L63">
+    <row r="63" spans="7:28" x14ac:dyDescent="0.3">
+      <c r="N63">
         <v>39</v>
       </c>
-      <c r="N63" s="21" t="s">
+      <c r="P63" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="Q63" s="19">
+      <c r="S63" s="31">
         <v>32</v>
       </c>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="19">
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="31">
         <v>33</v>
       </c>
-      <c r="Z63">
+      <c r="AB63">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="7:26" x14ac:dyDescent="0.3">
-      <c r="W64" t="s">
+    <row r="64" spans="7:28" x14ac:dyDescent="0.3">
+      <c r="Y64" t="s">
         <v>98</v>
       </c>
-      <c r="X64" cm="1">
-        <f t="array" ref="X64">SUMPRODUCT(--(ISNUMBER(Q40:Q63) * (NOT(ISTEXT(Q40:Q63))))) + SUMPRODUCT(--(ISNUMBER(T40:T63) * (NOT(ISTEXT(T40:T63)))))</f>
+      <c r="Z64" cm="1">
+        <f t="array" ref="Z64">SUMPRODUCT(--(ISNUMBER(S40:S63) * (NOT(ISTEXT(S40:S63))))) + SUMPRODUCT(--(ISNUMBER(V40:V63) * (NOT(ISTEXT(V40:V63)))))</f>
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="W65" t="s">
+    <row r="65" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="Y65" t="s">
         <v>99</v>
       </c>
-      <c r="X65">
+      <c r="Z65">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="W66" t="s">
+    <row r="66" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="Y66" t="s">
         <v>114</v>
       </c>
-      <c r="X66">
+      <c r="Z66">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="W67" s="15" t="s">
+    <row r="67" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="Y67" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="X67" s="15">
+      <c r="Z67" s="15">
         <v>-3</v>
       </c>
     </row>
-    <row r="68" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="W68" t="s">
+    <row r="68" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="Y68" t="s">
         <v>112</v>
       </c>
-      <c r="X68">
+      <c r="Z68">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="W69" s="15" t="s">
+    <row r="69" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="Y69" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="X69" s="15">
+      <c r="Z69" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="W71" t="s">
+    <row r="71" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="Y71" t="s">
         <v>100</v>
       </c>
-      <c r="X71">
-        <f>X64-SUM(X65:X70)</f>
+      <c r="Z71">
+        <f>Z64-SUM(Z65:Z70)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L75">
+    <row r="75" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N75">
         <v>39</v>
       </c>
-      <c r="N75" s="21" t="s">
+      <c r="P75" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="Q75" s="19">
+      <c r="S75" s="31">
         <v>32</v>
       </c>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="19">
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="31">
         <v>33</v>
       </c>
-      <c r="Z75">
+      <c r="AB75">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L76">
+    <row r="76" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N76">
         <v>40</v>
       </c>
-      <c r="N76" s="21" t="s">
+      <c r="P76" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="Q76" s="19">
+      <c r="S76" s="31">
         <v>31</v>
       </c>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="19">
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="31">
         <v>34</v>
       </c>
-      <c r="V76" t="s">
+      <c r="X76" t="s">
         <v>110</v>
       </c>
-      <c r="Z76">
+      <c r="AB76">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L77">
+    <row r="77" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N77">
         <v>41</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="O77" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N77" t="s">
+      <c r="P77" t="s">
         <v>102</v>
       </c>
-      <c r="Q77">
+      <c r="S77" s="29">
         <v>30</v>
       </c>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="4">
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="33">
         <v>35</v>
       </c>
-      <c r="V77" s="4" t="s">
+      <c r="X77" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z77">
+      <c r="AB77">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L78">
+    <row r="78" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N78">
         <v>42</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="O78" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N78" t="s">
+      <c r="P78" t="s">
         <v>102</v>
       </c>
-      <c r="Q78">
+      <c r="S78" s="29">
         <v>29</v>
       </c>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="4">
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="33">
         <v>36</v>
       </c>
-      <c r="V78" s="4" t="s">
+      <c r="X78" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Z78">
+      <c r="AB78">
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L79">
+    <row r="79" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N79">
         <v>43</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="O79" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N79" t="s">
+      <c r="P79" t="s">
         <v>104</v>
       </c>
-      <c r="Q79">
+      <c r="S79" s="29">
         <v>28</v>
       </c>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79">
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="29">
         <v>37</v>
       </c>
-      <c r="V79" t="s">
+      <c r="X79" t="s">
         <v>108</v>
       </c>
-      <c r="Z79">
+      <c r="AB79">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L80">
+    <row r="80" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N80">
         <v>44</v>
       </c>
-      <c r="N80" s="16" t="s">
+      <c r="P80" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="P80" t="s">
+      <c r="R80" t="s">
         <v>90</v>
       </c>
-      <c r="Q80">
+      <c r="S80" s="29">
         <v>27</v>
       </c>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80">
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="29">
         <v>38</v>
       </c>
-      <c r="U80" t="s">
+      <c r="W80" t="s">
         <v>91</v>
       </c>
-      <c r="V80" t="s">
+      <c r="X80" t="s">
         <v>109</v>
       </c>
-      <c r="Z80">
+      <c r="AB80">
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L81">
+    <row r="81" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N81">
         <v>45</v>
       </c>
-      <c r="N81" s="16" t="s">
+      <c r="P81" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="P81" t="s">
+      <c r="R81" t="s">
         <v>89</v>
       </c>
-      <c r="Q81">
+      <c r="S81" s="29">
         <v>26</v>
       </c>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81">
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="29">
         <v>39</v>
       </c>
-      <c r="U81" t="s">
+      <c r="W81" t="s">
         <v>92</v>
       </c>
-      <c r="V81" s="16" t="s">
+      <c r="X81" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="Z81">
+      <c r="AB81">
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L82">
+    <row r="82" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N82">
         <v>46</v>
       </c>
-      <c r="N82" t="s">
+      <c r="P82" t="s">
         <v>103</v>
       </c>
-      <c r="P82" t="s">
+      <c r="R82" t="s">
         <v>88</v>
       </c>
-      <c r="Q82">
+      <c r="S82" s="29">
         <v>25</v>
       </c>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="4">
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="33">
         <v>40</v>
       </c>
-      <c r="U82" t="s">
+      <c r="W82" t="s">
         <v>94</v>
       </c>
-      <c r="V82" s="4" t="s">
+      <c r="X82" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Z82">
+      <c r="AB82">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L83">
+    <row r="83" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N83">
         <v>47</v>
       </c>
-      <c r="O83" s="2" t="s">
+      <c r="Q83" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="P83" t="s">
+      <c r="R83" t="s">
         <v>87</v>
       </c>
-      <c r="Q83">
+      <c r="S83" s="29">
         <v>24</v>
       </c>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="4">
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="33">
         <v>41</v>
       </c>
-      <c r="U83" t="s">
+      <c r="W83" t="s">
         <v>93</v>
       </c>
-      <c r="V83" s="4" t="s">
+      <c r="X83" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Z83">
+      <c r="AB83">
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L84">
+    <row r="84" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N84">
         <v>48</v>
       </c>
-      <c r="Q84" s="3" t="s">
+      <c r="S84" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
-      <c r="T84" s="3" t="s">
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="Z84">
+      <c r="AB84">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L85">
+    <row r="85" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N85">
         <v>49</v>
       </c>
-      <c r="O85" s="13" t="s">
+      <c r="Q85" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q85" s="4">
+      <c r="S85" s="33">
         <v>12</v>
       </c>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="4">
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="33">
         <v>13</v>
       </c>
-      <c r="U85" t="s">
+      <c r="W85" t="s">
         <v>51</v>
       </c>
-      <c r="V85" s="14" t="s">
+      <c r="X85" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="Z85">
+      <c r="AB85">
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L86">
+    <row r="86" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N86">
         <v>50</v>
       </c>
-      <c r="O86" s="13" t="s">
+      <c r="Q86" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="Q86" s="4">
+      <c r="S86" s="33">
         <v>11</v>
       </c>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86">
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="29">
         <v>14</v>
       </c>
-      <c r="U86" s="19" t="s">
+      <c r="W86" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="Z86">
+      <c r="AB86">
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L87">
+    <row r="87" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N87">
         <v>51</v>
       </c>
-      <c r="O87" s="13" t="s">
+      <c r="Q87" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Q87">
+      <c r="S87" s="29">
         <v>10</v>
       </c>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87">
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="29">
         <v>15</v>
       </c>
-      <c r="U87" s="19" t="s">
+      <c r="W87" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="V87" s="20" t="s">
+      <c r="X87" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="Z87">
+      <c r="AB87">
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L88">
+    <row r="88" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N88">
         <v>52</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="P88" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q88" s="4">
+      <c r="S88" s="33">
         <v>9</v>
       </c>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88">
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="29">
         <v>16</v>
       </c>
-      <c r="U88" s="19" t="s">
+      <c r="W88" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="V88" s="15"/>
-      <c r="Z88">
+      <c r="X88" s="15"/>
+      <c r="AB88">
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L89">
+    <row r="89" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N89">
         <v>53</v>
       </c>
-      <c r="O89" s="13" t="s">
+      <c r="Q89" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Q89" s="2">
+      <c r="S89" s="32">
         <v>8</v>
       </c>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89">
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="29">
         <v>17</v>
       </c>
-      <c r="U89" s="19" t="s">
+      <c r="W89" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Z89">
+      <c r="AB89">
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L90">
+    <row r="90" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N90">
         <v>54</v>
       </c>
-      <c r="O90" s="13" t="s">
+      <c r="Q90" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q90" s="2">
+      <c r="S90" s="32">
         <v>7</v>
       </c>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90">
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="29">
         <v>18</v>
       </c>
-      <c r="U90" t="s">
+      <c r="W90" t="s">
         <v>84</v>
       </c>
-      <c r="V90" s="14" t="s">
+      <c r="X90" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Z90">
+      <c r="AB90">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L91">
+    <row r="91" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N91">
         <v>55</v>
       </c>
-      <c r="O91" s="2" t="s">
+      <c r="Q91" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q91" s="2">
+      <c r="S91" s="32">
         <v>6</v>
       </c>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91">
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="29">
         <v>19</v>
       </c>
-      <c r="U91" t="s">
+      <c r="W91" t="s">
         <v>83</v>
       </c>
-      <c r="V91" s="14" t="s">
+      <c r="X91" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Z91">
+      <c r="AB91">
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L92">
+    <row r="92" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N92">
         <v>56</v>
       </c>
-      <c r="Q92" s="19">
+      <c r="S92" s="31">
         <v>5</v>
       </c>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92">
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="29">
         <v>20</v>
       </c>
-      <c r="U92" t="s">
+      <c r="W92" t="s">
         <v>82</v>
       </c>
-      <c r="V92" s="2" t="s">
+      <c r="X92" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Z92">
+      <c r="AB92">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L93">
+    <row r="93" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N93">
         <v>57</v>
       </c>
-      <c r="Q93" s="19">
+      <c r="S93" s="31">
         <v>4</v>
       </c>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93">
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="29">
         <v>21</v>
       </c>
-      <c r="U93" t="s">
+      <c r="W93" t="s">
         <v>81</v>
       </c>
-      <c r="V93" s="2" t="s">
+      <c r="X93" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Z93">
+      <c r="AB93">
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L94">
+    <row r="94" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N94">
         <v>58</v>
       </c>
-      <c r="Q94" s="19">
+      <c r="S94" s="31">
         <v>3</v>
       </c>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94">
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="29">
         <v>22</v>
       </c>
-      <c r="U94" s="19" t="s">
+      <c r="W94" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Z94">
+      <c r="AB94">
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L95">
+    <row r="95" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N95">
         <v>59</v>
       </c>
-      <c r="Q95" s="19">
+      <c r="S95" s="31">
         <v>2</v>
       </c>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95">
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="29">
         <v>23</v>
       </c>
-      <c r="U95" t="s">
+      <c r="W95" t="s">
         <v>79</v>
       </c>
-      <c r="V95" s="2" t="s">
+      <c r="X95" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z95">
+      <c r="AB95">
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L96">
+    <row r="96" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N96">
         <v>60</v>
       </c>
-      <c r="Q96" s="19">
+      <c r="S96" s="31">
         <v>1</v>
       </c>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="3" t="s">
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="Z96">
+      <c r="AB96">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L97">
+    <row r="97" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N97">
         <v>61</v>
       </c>
-      <c r="Q97" s="19">
+      <c r="S97" s="31">
         <v>0</v>
       </c>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
       <c r="T97" s="1"/>
-      <c r="U97" s="3" t="s">
+      <c r="U97" s="1"/>
+      <c r="V97" s="34"/>
+      <c r="W97" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Z97">
+      <c r="AB97">
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L98">
+    <row r="98" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N98">
         <v>62</v>
       </c>
-      <c r="Q98" s="3" t="s">
+      <c r="S98" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="3" t="s">
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="Z98">
+      <c r="AB98">
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L102" t="s">
+    <row r="102" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N102" t="s">
         <v>104</v>
       </c>
-      <c r="O102" t="s">
+      <c r="Q102" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="Q102" s="19">
+      <c r="S102" s="31">
         <v>33</v>
       </c>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="19">
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="31">
         <v>32</v>
       </c>
-      <c r="V102" s="4" t="s">
+      <c r="X102" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L103" t="s">
+    <row r="103" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N103" t="s">
         <v>103</v>
       </c>
-      <c r="O103" t="s">
+      <c r="Q103" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="Q103" s="19">
+      <c r="S103" s="31">
         <v>34</v>
       </c>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="19">
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="31">
         <v>31</v>
       </c>
-      <c r="V103" s="4" t="s">
+      <c r="X103" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L104" t="s">
+    <row r="104" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N104" t="s">
         <v>103</v>
       </c>
-      <c r="M104" t="s">
+      <c r="O104" t="s">
         <v>110</v>
       </c>
-      <c r="O104" t="s">
+      <c r="Q104" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="Q104" s="4">
+      <c r="S104" s="33">
         <v>35</v>
       </c>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104">
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="29">
         <v>30</v>
       </c>
-      <c r="V104" s="4" t="s">
+      <c r="X104" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L105" t="s">
+    <row r="105" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N105" t="s">
         <v>102</v>
       </c>
-      <c r="M105" t="s">
+      <c r="O105" t="s">
         <v>108</v>
       </c>
-      <c r="O105" t="s">
+      <c r="Q105" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="Q105" s="4">
+      <c r="S105" s="33">
         <v>36</v>
       </c>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105">
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="29">
         <v>29</v>
       </c>
-      <c r="V105" t="s">
+      <c r="X105" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L106" t="s">
+    <row r="106" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="N106" t="s">
         <v>102</v>
       </c>
-      <c r="M106" t="s">
+      <c r="O106" t="s">
         <v>109</v>
       </c>
-      <c r="O106" t="s">
+      <c r="Q106" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="Q106">
+      <c r="S106" s="29">
         <v>37</v>
       </c>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106">
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="29">
         <v>28</v>
       </c>
-      <c r="V106" t="s">
+      <c r="X106" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="O107" t="s">
+    <row r="107" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="Q107" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="P107" t="s">
+      <c r="R107" t="s">
         <v>91</v>
       </c>
-      <c r="Q107">
+      <c r="S107" s="29">
         <v>38</v>
       </c>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107">
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="29">
         <v>27</v>
       </c>
-      <c r="U107" t="s">
+      <c r="W107" t="s">
         <v>90</v>
       </c>
-      <c r="V107" s="16" t="s">
+      <c r="X107" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="O108" s="16" t="s">
+    <row r="108" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="Q108" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="P108" t="s">
+      <c r="R108" t="s">
         <v>92</v>
       </c>
-      <c r="Q108" s="4">
+      <c r="S108" s="33">
         <v>39</v>
       </c>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108">
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="29">
         <v>26</v>
       </c>
-      <c r="U108" t="s">
+      <c r="W108" t="s">
         <v>89</v>
       </c>
-      <c r="V108" s="16" t="s">
+      <c r="X108" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="O109" s="4" t="s">
+    <row r="109" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="Q109" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P109" t="s">
+      <c r="R109" t="s">
         <v>94</v>
       </c>
-      <c r="Q109" s="4">
+      <c r="S109" s="33">
         <v>40</v>
       </c>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109">
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="29">
         <v>25</v>
       </c>
-      <c r="U109" t="s">
+      <c r="W109" t="s">
         <v>88</v>
       </c>
-      <c r="V109" t="s">
+      <c r="X109" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="O110" s="4" t="s">
+    <row r="110" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="Q110" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="P110" t="s">
+      <c r="R110" t="s">
         <v>93</v>
       </c>
-      <c r="Q110" s="4">
+      <c r="S110" s="33">
         <v>41</v>
       </c>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110">
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="29">
         <v>24</v>
       </c>
-      <c r="U110" t="s">
+      <c r="W110" t="s">
         <v>87</v>
       </c>
-      <c r="V110" t="s">
+      <c r="X110" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="Q111" s="3" t="s">
+    <row r="111" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="S111" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="3" t="s">
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="O112" s="14" t="s">
+    <row r="112" spans="14:28" x14ac:dyDescent="0.3">
+      <c r="Q112" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="P112" t="s">
+      <c r="R112" t="s">
         <v>51</v>
       </c>
-      <c r="Q112" s="4">
+      <c r="S112" s="33">
         <v>13</v>
       </c>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="4">
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="33">
         <v>12</v>
       </c>
-      <c r="V112" s="13" t="s">
+      <c r="X112" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="O113" t="s">
+    <row r="113" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Q113" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="P113" s="19" t="s">
+      <c r="R113" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="Q113">
+      <c r="S113" s="29">
         <v>14</v>
       </c>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1"/>
-      <c r="T113" s="4">
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="33">
         <v>11</v>
       </c>
-      <c r="V113" s="13" t="s">
+      <c r="X113" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N114" s="2" t="s">
+    <row r="114" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="P114" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O114" s="20" t="s">
+      <c r="Q114" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="P114" s="19" t="s">
+      <c r="R114" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="Q114">
+      <c r="S114" s="29">
         <v>15</v>
       </c>
-      <c r="R114" s="1"/>
-      <c r="S114" s="1"/>
-      <c r="T114">
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="29">
         <v>10</v>
       </c>
-      <c r="V114" s="13" t="s">
+      <c r="X114" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N115" t="s">
+    <row r="115" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="P115" t="s">
         <v>123</v>
       </c>
-      <c r="O115" s="15"/>
-      <c r="P115" s="19" t="s">
+      <c r="Q115" s="42"/>
+      <c r="R115" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="Q115">
+      <c r="S115" s="29">
         <v>16</v>
       </c>
-      <c r="R115" s="1"/>
-      <c r="S115" s="1"/>
-      <c r="T115" s="4">
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="33">
         <v>9</v>
       </c>
-      <c r="V115" t="s">
+      <c r="X115" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N116" t="s">
+    <row r="116" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="P116" t="s">
         <v>124</v>
       </c>
-      <c r="P116" s="19" t="s">
+      <c r="R116" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Q116">
+      <c r="S116" s="29">
         <v>17</v>
       </c>
-      <c r="R116" s="1"/>
-      <c r="S116" s="1"/>
-      <c r="T116" s="2">
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="32">
         <v>8</v>
       </c>
-      <c r="V116" s="13" t="s">
+      <c r="X116" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="O117" s="14" t="s">
+    <row r="117" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Q117" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="P117" t="s">
+      <c r="R117" t="s">
         <v>84</v>
       </c>
-      <c r="Q117">
+      <c r="S117" s="29">
         <v>18</v>
       </c>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="2">
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="32">
         <v>7</v>
       </c>
-      <c r="V117" s="13" t="s">
+      <c r="X117" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="O118" s="14" t="s">
+    <row r="118" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Q118" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="P118" t="s">
+      <c r="R118" t="s">
         <v>83</v>
       </c>
-      <c r="Q118">
+      <c r="S118" s="29">
         <v>19</v>
       </c>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="2">
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="32">
         <v>6</v>
       </c>
-      <c r="V118" s="2" t="s">
+      <c r="X118" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="O119" s="2" t="s">
+    <row r="119" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Q119" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="P119" t="s">
+      <c r="R119" t="s">
         <v>82</v>
       </c>
-      <c r="Q119">
+      <c r="S119" s="29">
         <v>20</v>
       </c>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="19">
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="31">
         <v>5</v>
       </c>
-      <c r="V119" t="s">
+      <c r="X119" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="O120" s="2" t="s">
+    <row r="120" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Q120" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="P120" t="s">
+      <c r="R120" t="s">
         <v>81</v>
       </c>
-      <c r="Q120">
+      <c r="S120" s="29">
         <v>21</v>
       </c>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
-      <c r="T120" s="19">
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="31">
         <v>4</v>
       </c>
-      <c r="V120" t="s">
+      <c r="X120" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N121" t="s">
+    <row r="121" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="P121" t="s">
         <v>133</v>
       </c>
-      <c r="P121" s="19" t="s">
+      <c r="R121" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q121">
+      <c r="S121" s="29">
         <v>22</v>
       </c>
-      <c r="R121" s="1"/>
-      <c r="S121" s="1"/>
-      <c r="T121" s="19">
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="31">
         <v>3</v>
       </c>
-      <c r="V121" t="s">
+      <c r="X121" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="O122" s="2" t="s">
+    <row r="122" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="Q122" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="P122" t="s">
+      <c r="R122" t="s">
         <v>79</v>
       </c>
-      <c r="Q122">
+      <c r="S122" s="29">
         <v>23</v>
       </c>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="19">
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="31">
         <v>2</v>
       </c>
-      <c r="V122" t="s">
+      <c r="X122" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="Q123" s="3" t="s">
+    <row r="123" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="S123" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R123" s="1"/>
-      <c r="S123" s="1"/>
-      <c r="T123" s="19">
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="31">
         <v>1</v>
       </c>
-      <c r="V123" t="s">
+      <c r="X123" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="P124" s="3"/>
-      <c r="Q124" s="3" t="s">
+    <row r="124" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="R124" s="3"/>
+      <c r="S124" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R124" s="1"/>
-      <c r="S124" s="1"/>
-      <c r="T124" s="19">
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="31">
         <v>0</v>
       </c>
-      <c r="V124" t="s">
+      <c r="X124" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="Q125" s="3" t="s">
+    <row r="125" spans="16:24" x14ac:dyDescent="0.3">
+      <c r="S125" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
-      <c r="T125" s="3" t="s">
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O129" s="4" t="s">
+    <row r="129" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q129" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="Q129" s="4">
+      <c r="S129" s="33">
         <v>33</v>
       </c>
-      <c r="R129" s="1"/>
-      <c r="S129" s="1"/>
-      <c r="T129">
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="29">
         <v>32</v>
       </c>
-      <c r="V129" t="s">
+      <c r="X129" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O130" s="4" t="s">
+    <row r="130" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q130" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="Q130" s="4">
+      <c r="S130" s="33">
         <v>34</v>
       </c>
-      <c r="R130" s="1"/>
-      <c r="S130" s="1"/>
-      <c r="T130">
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="29">
         <v>31</v>
       </c>
-      <c r="V130" t="s">
+      <c r="X130" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O131" s="4" t="s">
+    <row r="131" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q131" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="Q131" s="4">
+      <c r="S131" s="33">
         <v>35</v>
       </c>
-      <c r="R131" s="1"/>
-      <c r="S131" s="1"/>
-      <c r="T131">
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="29">
         <v>30</v>
       </c>
-      <c r="V131" t="s">
+      <c r="X131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O132" s="4" t="s">
+    <row r="132" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q132" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="Q132" s="4">
+      <c r="S132" s="33">
         <v>36</v>
       </c>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
-      <c r="T132">
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="29">
         <v>29</v>
       </c>
-      <c r="V132" t="s">
+      <c r="X132" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O133" s="4" t="s">
+    <row r="133" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q133" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="Q133" s="4">
+      <c r="S133" s="33">
         <v>37</v>
       </c>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
-      <c r="T133">
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="29">
         <v>28</v>
       </c>
-      <c r="V133" t="s">
+      <c r="X133" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O134" s="4" t="s">
+    <row r="134" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q134" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="P134" t="s">
+      <c r="R134" t="s">
         <v>91</v>
       </c>
-      <c r="Q134">
+      <c r="S134" s="29">
         <v>38</v>
       </c>
-      <c r="R134" s="1"/>
-      <c r="S134" s="1"/>
-      <c r="T134" s="16">
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="35">
         <v>27</v>
       </c>
-      <c r="U134" t="s">
+      <c r="W134" t="s">
         <v>90</v>
       </c>
-      <c r="V134" s="16" t="s">
+      <c r="X134" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O135" s="16" t="s">
+    <row r="135" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q135" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="P135" t="s">
+      <c r="R135" t="s">
         <v>92</v>
       </c>
-      <c r="Q135">
+      <c r="S135" s="29">
         <v>39</v>
       </c>
-      <c r="R135" s="1"/>
-      <c r="S135" s="1"/>
-      <c r="T135" s="16">
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="35">
         <v>26</v>
       </c>
-      <c r="U135" t="s">
+      <c r="W135" t="s">
         <v>89</v>
       </c>
-      <c r="V135" s="16" t="s">
+      <c r="X135" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="136" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O136" t="s">
+    <row r="136" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q136" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="P136" t="s">
+      <c r="R136" t="s">
         <v>94</v>
       </c>
-      <c r="Q136">
+      <c r="S136" s="29">
         <v>40</v>
       </c>
-      <c r="R136" s="1"/>
-      <c r="S136" s="1"/>
-      <c r="T136">
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="29">
         <v>25</v>
       </c>
-      <c r="U136" t="s">
+      <c r="W136" t="s">
         <v>88</v>
       </c>
-      <c r="V136" t="s">
+      <c r="X136" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M137" t="s">
+    <row r="137" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="O137" t="s">
         <v>142</v>
       </c>
-      <c r="O137" t="s">
+      <c r="Q137" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="P137" t="s">
+      <c r="R137" t="s">
         <v>93</v>
       </c>
-      <c r="Q137">
+      <c r="S137" s="29">
         <v>41</v>
       </c>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
-      <c r="T137">
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="29">
         <v>24</v>
       </c>
-      <c r="U137" t="s">
+      <c r="W137" t="s">
         <v>87</v>
       </c>
-      <c r="V137" t="s">
+      <c r="X137" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O138" s="22"/>
-      <c r="Q138" s="3" t="s">
+    <row r="138" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q138" s="43"/>
+      <c r="S138" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R138" s="1"/>
-      <c r="S138" s="1"/>
-      <c r="T138" s="3" t="s">
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="V138" s="22"/>
-    </row>
-    <row r="139" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O139" s="24" t="s">
+      <c r="X138" s="22"/>
+    </row>
+    <row r="139" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q139" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P139" t="s">
+      <c r="R139" t="s">
         <v>51</v>
       </c>
-      <c r="Q139">
+      <c r="S139" s="29">
         <v>13</v>
       </c>
-      <c r="R139" s="1"/>
-      <c r="S139" s="1"/>
-      <c r="T139">
+      <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="29">
         <v>12</v>
       </c>
-      <c r="V139" s="13" t="s">
+      <c r="X139" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O140" s="24" t="s">
+    <row r="140" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q140" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="P140" t="s">
+      <c r="R140" t="s">
         <v>77</v>
       </c>
-      <c r="Q140">
+      <c r="S140" s="29">
         <v>14</v>
       </c>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
-      <c r="T140">
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="29">
         <v>11</v>
       </c>
-      <c r="V140" s="13" t="s">
+      <c r="X140" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="141" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M141" s="23" t="s">
+    <row r="141" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="O141" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="O141" s="19" t="s">
+      <c r="Q141" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="P141" t="s">
+      <c r="R141" t="s">
         <v>78</v>
       </c>
-      <c r="Q141">
+      <c r="S141" s="29">
         <v>15</v>
       </c>
-      <c r="R141" s="1"/>
-      <c r="S141" s="1"/>
-      <c r="T141">
+      <c r="T141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="29">
         <v>10</v>
       </c>
-      <c r="V141" s="13" t="s">
+      <c r="X141" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O142" s="2" t="s">
+    <row r="142" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q142" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="P142" s="19" t="s">
+      <c r="R142" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="Q142">
+      <c r="S142" s="29">
         <v>16</v>
       </c>
-      <c r="R142" s="1"/>
-      <c r="S142" s="1"/>
-      <c r="T142">
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="29">
         <v>9</v>
       </c>
-      <c r="V142" t="s">
+      <c r="X142" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O143" s="19" t="s">
+    <row r="143" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q143" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="P143" s="19" t="s">
+      <c r="R143" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Q143">
+      <c r="S143" s="29">
         <v>17</v>
       </c>
-      <c r="R143" s="1"/>
-      <c r="S143" s="1"/>
-      <c r="T143" s="2">
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="32">
         <v>8</v>
       </c>
-      <c r="V143" s="13" t="s">
+      <c r="X143" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="O144" s="14" t="s">
+    <row r="144" spans="15:24" x14ac:dyDescent="0.3">
+      <c r="Q144" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="P144" t="s">
+      <c r="R144" t="s">
         <v>84</v>
       </c>
-      <c r="Q144">
+      <c r="S144" s="29">
         <v>18</v>
       </c>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
-      <c r="T144" s="2">
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="32">
         <v>7</v>
       </c>
-      <c r="V144" s="13" t="s">
+      <c r="X144" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O145" s="14" t="s">
+    <row r="145" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="Q145" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="P145" t="s">
+      <c r="R145" t="s">
         <v>83</v>
       </c>
-      <c r="Q145">
+      <c r="S145" s="29">
         <v>19</v>
       </c>
-      <c r="R145" s="1"/>
-      <c r="S145" s="1"/>
-      <c r="T145" s="2">
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="32">
         <v>6</v>
       </c>
-      <c r="V145" s="2" t="s">
+      <c r="X145" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O146" s="2" t="s">
+    <row r="146" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="Q146" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="P146" t="s">
+      <c r="R146" t="s">
         <v>82</v>
       </c>
-      <c r="Q146">
+      <c r="S146" s="29">
         <v>20</v>
       </c>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
-      <c r="T146">
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="29">
         <v>5</v>
       </c>
-      <c r="V146" t="s">
+      <c r="X146" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O147" s="2" t="s">
+    <row r="147" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="Q147" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="P147" t="s">
+      <c r="R147" t="s">
         <v>81</v>
       </c>
-      <c r="Q147">
+      <c r="S147" s="29">
         <v>21</v>
       </c>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
-      <c r="T147">
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="29">
         <v>4</v>
       </c>
-      <c r="V147" t="s">
+      <c r="X147" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O148" s="24" t="s">
+    <row r="148" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="Q148" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="P148" s="24" t="s">
+      <c r="R148" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="Q148">
+      <c r="S148" s="29">
         <v>22</v>
       </c>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
-      <c r="T148">
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="29">
         <v>3</v>
       </c>
-      <c r="V148" t="s">
+      <c r="X148" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O149" s="2" t="s">
+    <row r="149" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="Q149" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="P149" t="s">
+      <c r="R149" t="s">
         <v>79</v>
       </c>
-      <c r="Q149">
+      <c r="S149" s="29">
         <v>23</v>
       </c>
-      <c r="R149" s="1"/>
-      <c r="S149" s="1"/>
-      <c r="T149">
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="29">
         <v>2</v>
       </c>
-      <c r="V149" s="24" t="s">
+      <c r="X149" s="24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="Q150" s="3" t="s">
+    <row r="150" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="S150" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
-      <c r="T150" s="16">
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="35">
         <v>1</v>
       </c>
-      <c r="V150" t="s">
+      <c r="X150" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="P151" s="3"/>
-      <c r="Q151" s="3" t="s">
+    <row r="151" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="R151" s="3"/>
+      <c r="S151" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
-      <c r="T151">
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="29">
         <v>0</v>
       </c>
-      <c r="V151" t="s">
+      <c r="X151" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="152" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="Q152" s="3" t="s">
+    <row r="152" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="S152" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1"/>
-      <c r="T152" s="3" t="s">
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O155" s="4" t="s">
+    <row r="155" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="N155" s="40"/>
+      <c r="O155" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q155" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="Q155" s="4">
+      <c r="S155" s="33">
         <v>33</v>
       </c>
-      <c r="R155" s="1"/>
-      <c r="S155" s="1"/>
-      <c r="T155">
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="31">
         <v>32</v>
       </c>
-      <c r="V155" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="156" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O156" s="4" t="s">
+      <c r="X155" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="N156" s="41"/>
+      <c r="O156" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q156" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="Q156" s="4">
+      <c r="S156" s="33">
         <v>34</v>
       </c>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1"/>
-      <c r="T156">
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="31">
         <v>31</v>
       </c>
-      <c r="V156" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="157" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O157" s="4" t="s">
+      <c r="X156" s="58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="N157" s="44"/>
+      <c r="O157" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q157" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="Q157" s="4">
+      <c r="S157" s="33">
         <v>35</v>
       </c>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1"/>
-      <c r="T157">
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="31">
         <v>30</v>
       </c>
-      <c r="V157" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="158" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O158" s="4" t="s">
+      <c r="X157" s="58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="N158" s="51"/>
+      <c r="O158" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q158" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="Q158" s="4">
+      <c r="S158" s="33">
         <v>36</v>
       </c>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
-      <c r="T158">
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="31">
         <v>29</v>
       </c>
-      <c r="V158" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="159" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O159" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q159" s="4">
+      <c r="X158" s="58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="N159" s="45"/>
+      <c r="O159" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q159" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="S159" s="33">
         <v>37</v>
       </c>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
-      <c r="T159">
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="31">
         <v>28</v>
       </c>
-      <c r="V159" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="160" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O160" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P160" t="s">
+      <c r="X159" s="58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="14:24" x14ac:dyDescent="0.3">
+      <c r="Q160" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="R160" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="Q160">
+      <c r="S160" s="33">
         <v>38</v>
       </c>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
-      <c r="T160" s="16">
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="59">
         <v>27</v>
       </c>
-      <c r="U160" t="s">
+      <c r="W160" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="V160" s="16" t="s">
+      <c r="X160" s="54" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="161" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O161" s="16" t="s">
+    <row r="161" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q161" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="P161" t="s">
+      <c r="R161" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="Q161">
+      <c r="S161" s="33">
         <v>39</v>
       </c>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1"/>
-      <c r="T161" s="16">
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="59">
         <v>26</v>
       </c>
-      <c r="U161" t="s">
+      <c r="W161" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="V161" s="16" t="s">
+      <c r="X161" s="54" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="162" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O162" t="s">
+    <row r="162" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q162" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="P162" t="s">
+      <c r="R162" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="Q162">
+      <c r="S162" s="34">
         <v>40</v>
       </c>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1"/>
-      <c r="T162">
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="31">
         <v>25</v>
       </c>
-      <c r="U162" t="s">
+      <c r="W162" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="V162" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="163" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O163" t="s">
+      <c r="X162" s="58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q163" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="P163" t="s">
+      <c r="R163" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="Q163">
+      <c r="S163" s="34">
         <v>41</v>
       </c>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1"/>
-      <c r="T163">
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="34">
         <v>24</v>
       </c>
-      <c r="U163" t="s">
+      <c r="W163" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="V163" t="s">
+      <c r="X163" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="164" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O164" s="22"/>
-      <c r="Q164" s="3" t="s">
+    <row r="164" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q164" s="43"/>
+      <c r="R164" s="55"/>
+      <c r="S164" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R164" s="1"/>
-      <c r="S164" s="1"/>
-      <c r="T164" s="3" t="s">
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="V164" s="22"/>
-    </row>
-    <row r="165" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O165" s="24" t="s">
+      <c r="X164" s="22"/>
+    </row>
+    <row r="165" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q165" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P165" t="s">
+      <c r="R165" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="Q165">
+      <c r="S165" s="29">
         <v>13</v>
       </c>
-      <c r="R165" s="1"/>
-      <c r="S165" s="1"/>
-      <c r="T165">
+      <c r="T165" s="1"/>
+      <c r="U165" s="1"/>
+      <c r="V165" s="29">
         <v>12</v>
       </c>
-      <c r="V165" s="13" t="s">
+      <c r="X165" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O166" s="24" t="s">
+    <row r="166" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q166" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="P166" t="s">
+      <c r="R166" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="Q166">
+      <c r="S166" s="29">
         <v>14</v>
       </c>
-      <c r="R166" s="1"/>
-      <c r="S166" s="1"/>
-      <c r="T166">
+      <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="29">
         <v>11</v>
       </c>
-      <c r="V166" s="13" t="s">
+      <c r="X166" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="167" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O167" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="P167" t="s">
+    <row r="167" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q167" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="R167" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="Q167">
+      <c r="S167" s="31">
         <v>15</v>
       </c>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
-      <c r="T167">
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="29">
         <v>10</v>
       </c>
-      <c r="V167" s="13" t="s">
+      <c r="X167" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O168" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="P168" s="19" t="s">
+    <row r="168" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q168" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="R168" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="Q168">
+      <c r="S168" s="31">
         <v>16</v>
       </c>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
-      <c r="T168">
+      <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="34">
         <v>9</v>
       </c>
-      <c r="V168" t="s">
+      <c r="X168" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="169" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O169" s="19" t="s">
+    <row r="169" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q169" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="P169" s="19" t="s">
+      <c r="R169" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="Q169">
+      <c r="S169" s="31">
         <v>17</v>
       </c>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
-      <c r="T169" s="2">
+      <c r="T169" s="1"/>
+      <c r="U169" s="1"/>
+      <c r="V169" s="29">
         <v>8</v>
       </c>
-      <c r="V169" s="13" t="s">
+      <c r="X169" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O170" s="14" t="s">
+    <row r="170" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q170" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="P170" t="s">
+      <c r="R170" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="Q170">
+      <c r="S170" s="29">
         <v>18</v>
       </c>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="2">
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="29">
         <v>7</v>
       </c>
-      <c r="V170" s="13" t="s">
+      <c r="X170" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O171" s="14" t="s">
+    <row r="171" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q171" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="P171" t="s">
+      <c r="R171" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="Q171">
+      <c r="S171" s="29">
         <v>19</v>
       </c>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="2">
+      <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
+      <c r="V171" s="29">
         <v>6</v>
       </c>
-      <c r="V171" s="2" t="s">
+      <c r="X171" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O172" s="2" t="s">
+    <row r="172" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q172" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="P172" t="s">
+      <c r="R172" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="Q172">
+      <c r="S172" s="29">
         <v>20</v>
       </c>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
-      <c r="T172">
+      <c r="T172" s="1"/>
+      <c r="U172" s="1"/>
+      <c r="V172" s="29">
         <v>5</v>
       </c>
-      <c r="V172" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="173" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O173" s="2" t="s">
+      <c r="X172" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q173" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="P173" t="s">
+      <c r="R173" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="Q173">
+      <c r="S173" s="29">
         <v>21</v>
       </c>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
-      <c r="T173">
+      <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="29">
         <v>4</v>
       </c>
-      <c r="V173" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="174" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O174" s="24" t="s">
+      <c r="X173" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="174" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q174" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="P174" s="24" t="s">
+      <c r="R174" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="Q174">
+      <c r="S174" s="57">
         <v>22</v>
       </c>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
-      <c r="T174">
+      <c r="T174" s="1"/>
+      <c r="U174" s="1"/>
+      <c r="V174" s="29">
         <v>3</v>
       </c>
-      <c r="V174" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="175" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="O175" s="2" t="s">
+      <c r="X174" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="175" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q175" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="P175" t="s">
+      <c r="R175" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="Q175">
+      <c r="S175" s="29">
         <v>23</v>
       </c>
-      <c r="R175" s="1"/>
-      <c r="S175" s="1"/>
-      <c r="T175">
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="57">
         <v>2</v>
       </c>
-      <c r="V175" s="24" t="s">
+      <c r="X175" s="24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="15:22" x14ac:dyDescent="0.3">
-      <c r="Q176" s="3" t="s">
+    <row r="176" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="S176" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R176" s="1"/>
-      <c r="S176" s="1"/>
-      <c r="T176" s="16">
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="59">
         <v>1</v>
       </c>
-      <c r="V176" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="177" spans="16:22" x14ac:dyDescent="0.3">
-      <c r="P177" s="3"/>
-      <c r="Q177" s="3" t="s">
+      <c r="X176" s="60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="177" spans="18:24" x14ac:dyDescent="0.3">
+      <c r="R177" s="3"/>
+      <c r="S177" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
-      <c r="T177">
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="31">
         <v>0</v>
       </c>
-      <c r="V177" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="178" spans="16:22" x14ac:dyDescent="0.3">
-      <c r="Q178" s="3" t="s">
+      <c r="X177" s="58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="178" spans="18:24" x14ac:dyDescent="0.3">
+      <c r="S178" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
-      <c r="T178" s="3" t="s">
+      <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="30" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L75:Z98">
-    <sortCondition ref="L75:L98"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N75:AB98">
+    <sortCondition ref="N75:N98"/>
   </sortState>
   <mergeCells count="35">
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J10:J11"/>
@@ -4169,13 +4425,33 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="J18:J19"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G57" r:id="rId1" xr:uid="{7DB5E503-0A2D-4988-9C86-E2470924D70A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="16" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/pins.xlsx
+++ b/pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repos\mcguitarpedal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE3884A-ACFF-47BE-AF8A-CD8A51896956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D72B401-E6ED-43CE-A5D1-367B5D548E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E7E72EA4-AA0D-4192-98B3-6275BC401633}"/>
   </bookViews>
@@ -758,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -800,18 +800,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,26 +852,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -894,10 +878,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1056,14 +1048,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>5257</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>170578</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>7291</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>161700</xdr:rowOff>
+      <xdr:rowOff>161699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1080,13 +1072,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="4424" t="37904" r="6822" b="39630"/>
+        <a:srcRect l="4423" t="37904" r="8460" b="39630"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="14952539" y="31493261"/>
-          <a:ext cx="4814913" cy="1260991"/>
+          <a:off x="14084336" y="30897970"/>
+          <a:ext cx="4609875" cy="1259334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1420,7 +1412,7 @@
   </sheetPr>
   <dimension ref="G10:AC178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L150" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F146" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N154" sqref="N154:X179"/>
     </sheetView>
   </sheetViews>
@@ -1435,11 +1427,11 @@
     <col min="14" max="14" width="4" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="4.109375" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="36" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="32" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.44140625" customWidth="1"/>
-    <col min="22" max="22" width="4.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.88671875" style="25" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.77734375" customWidth="1"/>
     <col min="25" max="25" width="14.109375" bestFit="1" customWidth="1"/>
@@ -1453,14 +1445,14 @@
         <v>2</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="7:13" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="5" t="s">
@@ -1470,154 +1462,154 @@
         <v>3</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="53" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="8">
         <v>23</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
     </row>
     <row r="13" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G13" s="27"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="53" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="8">
         <v>21</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G15" s="27"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="8">
         <v>20</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G17" s="27"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="53" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8">
         <v>7</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="53" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="7:13" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="27"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="53" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="8">
         <v>8</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="53" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G21" s="27"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="27"/>
+      <c r="J21" s="53"/>
       <c r="K21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G22" s="7" t="s">
@@ -1633,8 +1625,8 @@
       <c r="K22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G23" s="7" t="s">
@@ -1650,148 +1642,148 @@
       <c r="K23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
     </row>
     <row r="24" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="56">
         <v>13</v>
       </c>
-      <c r="I24" s="26"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
     </row>
     <row r="25" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
     </row>
     <row r="26" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="56">
         <v>12</v>
       </c>
-      <c r="I26" s="26"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
     </row>
     <row r="27" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
     </row>
     <row r="28" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="56">
         <v>11</v>
       </c>
-      <c r="I28" s="26"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
     </row>
     <row r="29" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
     </row>
     <row r="30" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="56">
         <v>10</v>
       </c>
-      <c r="I30" s="26"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
     </row>
     <row r="31" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
     </row>
     <row r="32" spans="7:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="56">
         <v>6</v>
       </c>
-      <c r="I32" s="26"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
     </row>
     <row r="33" spans="7:29" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="25"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
     </row>
     <row r="34" spans="7:29" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="G34" s="7" t="s">
@@ -1807,8 +1799,8 @@
       <c r="K34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
     </row>
     <row r="40" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G40" s="12" t="s">
@@ -1823,12 +1815,12 @@
       <c r="N40">
         <v>62</v>
       </c>
-      <c r="S40" s="30" t="s">
+      <c r="S40" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="30" t="s">
+      <c r="V40" s="26" t="s">
         <v>52</v>
       </c>
       <c r="AB40">
@@ -1848,12 +1840,12 @@
       <c r="N41">
         <v>61</v>
       </c>
-      <c r="S41" s="31">
+      <c r="S41" s="27">
         <v>0</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="34"/>
+      <c r="V41" s="30"/>
       <c r="W41" s="3" t="s">
         <v>49</v>
       </c>
@@ -1871,12 +1863,12 @@
       <c r="N42">
         <v>60</v>
       </c>
-      <c r="S42" s="31">
+      <c r="S42" s="27">
         <v>1</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="30" t="s">
+      <c r="V42" s="26" t="s">
         <v>50</v>
       </c>
       <c r="AB42">
@@ -1896,12 +1888,12 @@
       <c r="N43">
         <v>59</v>
       </c>
-      <c r="S43" s="31">
+      <c r="S43" s="27">
         <v>2</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-      <c r="V43" s="29">
+      <c r="V43" s="25">
         <v>23</v>
       </c>
       <c r="W43" t="s">
@@ -1924,12 +1916,12 @@
       <c r="N44">
         <v>58</v>
       </c>
-      <c r="S44" s="31">
+      <c r="S44" s="27">
         <v>3</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="29">
+      <c r="V44" s="25">
         <v>22</v>
       </c>
       <c r="W44" s="19" t="s">
@@ -1952,12 +1944,12 @@
       <c r="N45">
         <v>57</v>
       </c>
-      <c r="S45" s="31">
+      <c r="S45" s="27">
         <v>4</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="29">
+      <c r="V45" s="25">
         <v>21</v>
       </c>
       <c r="W45" t="s">
@@ -1980,12 +1972,12 @@
       <c r="N46">
         <v>56</v>
       </c>
-      <c r="S46" s="31">
+      <c r="S46" s="27">
         <v>5</v>
       </c>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="29">
+      <c r="V46" s="25">
         <v>20</v>
       </c>
       <c r="W46" t="s">
@@ -2008,15 +2000,15 @@
       <c r="N47">
         <v>55</v>
       </c>
-      <c r="Q47" s="37" t="s">
+      <c r="Q47" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="S47" s="32">
+      <c r="S47" s="28">
         <v>6</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="29">
+      <c r="V47" s="25">
         <v>19</v>
       </c>
       <c r="W47" t="s">
@@ -2042,15 +2034,15 @@
       <c r="N48">
         <v>54</v>
       </c>
-      <c r="Q48" s="38" t="s">
+      <c r="Q48" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="S48" s="32">
+      <c r="S48" s="28">
         <v>7</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="29">
+      <c r="V48" s="25">
         <v>18</v>
       </c>
       <c r="W48" t="s">
@@ -2073,15 +2065,15 @@
       <c r="N49">
         <v>53</v>
       </c>
-      <c r="Q49" s="38" t="s">
+      <c r="Q49" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="S49" s="32">
+      <c r="S49" s="28">
         <v>8</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="29">
+      <c r="V49" s="25">
         <v>17</v>
       </c>
       <c r="W49" s="19" t="s">
@@ -2104,12 +2096,12 @@
       <c r="P50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="S50" s="33">
+      <c r="S50" s="29">
         <v>9</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="29">
+      <c r="V50" s="25">
         <v>16</v>
       </c>
       <c r="W50" s="19" t="s">
@@ -2132,15 +2124,15 @@
       <c r="N51">
         <v>51</v>
       </c>
-      <c r="Q51" s="38" t="s">
+      <c r="Q51" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="S51" s="29">
+      <c r="S51" s="25">
         <v>10</v>
       </c>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="29">
+      <c r="V51" s="25">
         <v>15</v>
       </c>
       <c r="W51" s="19" t="s">
@@ -2163,15 +2155,15 @@
       <c r="N52">
         <v>50</v>
       </c>
-      <c r="Q52" s="38" t="s">
+      <c r="Q52" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="S52" s="33">
+      <c r="S52" s="29">
         <v>11</v>
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-      <c r="V52" s="29">
+      <c r="V52" s="25">
         <v>14</v>
       </c>
       <c r="W52" s="19" t="s">
@@ -2191,15 +2183,15 @@
       <c r="N53">
         <v>49</v>
       </c>
-      <c r="Q53" s="38" t="s">
+      <c r="Q53" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="S53" s="33">
+      <c r="S53" s="29">
         <v>12</v>
       </c>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="33">
+      <c r="V53" s="29">
         <v>13</v>
       </c>
       <c r="W53" t="s">
@@ -2225,12 +2217,12 @@
       <c r="N54">
         <v>48</v>
       </c>
-      <c r="S54" s="30" t="s">
+      <c r="S54" s="26" t="s">
         <v>50</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="30" t="s">
+      <c r="V54" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AB54">
@@ -2241,18 +2233,18 @@
       <c r="N55">
         <v>47</v>
       </c>
-      <c r="Q55" s="37" t="s">
+      <c r="Q55" s="33" t="s">
         <v>111</v>
       </c>
       <c r="R55" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="29">
+      <c r="S55" s="25">
         <v>24</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-      <c r="V55" s="33">
+      <c r="V55" s="29">
         <v>41</v>
       </c>
       <c r="W55" t="s">
@@ -2278,12 +2270,12 @@
       <c r="R56" t="s">
         <v>88</v>
       </c>
-      <c r="S56" s="29">
+      <c r="S56" s="25">
         <v>25</v>
       </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="33">
+      <c r="V56" s="29">
         <v>40</v>
       </c>
       <c r="W56" t="s">
@@ -2309,12 +2301,12 @@
       <c r="R57" t="s">
         <v>89</v>
       </c>
-      <c r="S57" s="29">
+      <c r="S57" s="25">
         <v>26</v>
       </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="29">
+      <c r="V57" s="25">
         <v>39</v>
       </c>
       <c r="W57" t="s">
@@ -2337,12 +2329,12 @@
       <c r="R58" t="s">
         <v>90</v>
       </c>
-      <c r="S58" s="29">
+      <c r="S58" s="25">
         <v>27</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="29">
+      <c r="V58" s="25">
         <v>38</v>
       </c>
       <c r="W58" t="s">
@@ -2365,12 +2357,12 @@
       <c r="P59" t="s">
         <v>104</v>
       </c>
-      <c r="S59" s="29">
+      <c r="S59" s="25">
         <v>28</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="29">
+      <c r="V59" s="25">
         <v>37</v>
       </c>
       <c r="X59" t="s">
@@ -2390,12 +2382,12 @@
       <c r="P60" t="s">
         <v>102</v>
       </c>
-      <c r="S60" s="29">
+      <c r="S60" s="25">
         <v>29</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="33">
+      <c r="V60" s="29">
         <v>36</v>
       </c>
       <c r="X60" s="4" t="s">
@@ -2415,12 +2407,12 @@
       <c r="P61" t="s">
         <v>102</v>
       </c>
-      <c r="S61" s="29">
+      <c r="S61" s="25">
         <v>30</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="33">
+      <c r="V61" s="29">
         <v>35</v>
       </c>
       <c r="X61" s="4" t="s">
@@ -2437,12 +2429,12 @@
       <c r="P62" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="S62" s="31">
+      <c r="S62" s="27">
         <v>31</v>
       </c>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
-      <c r="V62" s="31">
+      <c r="V62" s="27">
         <v>34</v>
       </c>
       <c r="X62" t="s">
@@ -2459,12 +2451,12 @@
       <c r="P63" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="S63" s="31">
+      <c r="S63" s="27">
         <v>32</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
-      <c r="V63" s="31">
+      <c r="V63" s="27">
         <v>33</v>
       </c>
       <c r="AB63">
@@ -2536,12 +2528,12 @@
       <c r="P75" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="S75" s="31">
+      <c r="S75" s="27">
         <v>32</v>
       </c>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
-      <c r="V75" s="31">
+      <c r="V75" s="27">
         <v>33</v>
       </c>
       <c r="AB75">
@@ -2555,12 +2547,12 @@
       <c r="P76" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="S76" s="31">
+      <c r="S76" s="27">
         <v>31</v>
       </c>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
-      <c r="V76" s="31">
+      <c r="V76" s="27">
         <v>34</v>
       </c>
       <c r="X76" t="s">
@@ -2580,12 +2572,12 @@
       <c r="P77" t="s">
         <v>102</v>
       </c>
-      <c r="S77" s="29">
+      <c r="S77" s="25">
         <v>30</v>
       </c>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
-      <c r="V77" s="33">
+      <c r="V77" s="29">
         <v>35</v>
       </c>
       <c r="X77" s="4" t="s">
@@ -2605,12 +2597,12 @@
       <c r="P78" t="s">
         <v>102</v>
       </c>
-      <c r="S78" s="29">
+      <c r="S78" s="25">
         <v>29</v>
       </c>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="33">
+      <c r="V78" s="29">
         <v>36</v>
       </c>
       <c r="X78" s="4" t="s">
@@ -2630,12 +2622,12 @@
       <c r="P79" t="s">
         <v>104</v>
       </c>
-      <c r="S79" s="29">
+      <c r="S79" s="25">
         <v>28</v>
       </c>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="29">
+      <c r="V79" s="25">
         <v>37</v>
       </c>
       <c r="X79" t="s">
@@ -2655,12 +2647,12 @@
       <c r="R80" t="s">
         <v>90</v>
       </c>
-      <c r="S80" s="29">
+      <c r="S80" s="25">
         <v>27</v>
       </c>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
-      <c r="V80" s="29">
+      <c r="V80" s="25">
         <v>38</v>
       </c>
       <c r="W80" t="s">
@@ -2683,12 +2675,12 @@
       <c r="R81" t="s">
         <v>89</v>
       </c>
-      <c r="S81" s="29">
+      <c r="S81" s="25">
         <v>26</v>
       </c>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
-      <c r="V81" s="29">
+      <c r="V81" s="25">
         <v>39</v>
       </c>
       <c r="W81" t="s">
@@ -2711,12 +2703,12 @@
       <c r="R82" t="s">
         <v>88</v>
       </c>
-      <c r="S82" s="29">
+      <c r="S82" s="25">
         <v>25</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
-      <c r="V82" s="33">
+      <c r="V82" s="29">
         <v>40</v>
       </c>
       <c r="W82" t="s">
@@ -2733,18 +2725,18 @@
       <c r="N83">
         <v>47</v>
       </c>
-      <c r="Q83" s="37" t="s">
+      <c r="Q83" s="33" t="s">
         <v>111</v>
       </c>
       <c r="R83" t="s">
         <v>87</v>
       </c>
-      <c r="S83" s="29">
+      <c r="S83" s="25">
         <v>24</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
-      <c r="V83" s="33">
+      <c r="V83" s="29">
         <v>41</v>
       </c>
       <c r="W83" t="s">
@@ -2761,12 +2753,12 @@
       <c r="N84">
         <v>48</v>
       </c>
-      <c r="S84" s="30" t="s">
+      <c r="S84" s="26" t="s">
         <v>50</v>
       </c>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
-      <c r="V84" s="30" t="s">
+      <c r="V84" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AB84">
@@ -2777,15 +2769,15 @@
       <c r="N85">
         <v>49</v>
       </c>
-      <c r="Q85" s="38" t="s">
+      <c r="Q85" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="S85" s="33">
+      <c r="S85" s="29">
         <v>12</v>
       </c>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
-      <c r="V85" s="33">
+      <c r="V85" s="29">
         <v>13</v>
       </c>
       <c r="W85" t="s">
@@ -2802,15 +2794,15 @@
       <c r="N86">
         <v>50</v>
       </c>
-      <c r="Q86" s="38" t="s">
+      <c r="Q86" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="S86" s="33">
+      <c r="S86" s="29">
         <v>11</v>
       </c>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
-      <c r="V86" s="29">
+      <c r="V86" s="25">
         <v>14</v>
       </c>
       <c r="W86" s="19" t="s">
@@ -2824,15 +2816,15 @@
       <c r="N87">
         <v>51</v>
       </c>
-      <c r="Q87" s="38" t="s">
+      <c r="Q87" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="S87" s="29">
+      <c r="S87" s="25">
         <v>10</v>
       </c>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
-      <c r="V87" s="29">
+      <c r="V87" s="25">
         <v>15</v>
       </c>
       <c r="W87" s="19" t="s">
@@ -2852,12 +2844,12 @@
       <c r="P88" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="S88" s="33">
+      <c r="S88" s="29">
         <v>9</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
-      <c r="V88" s="29">
+      <c r="V88" s="25">
         <v>16</v>
       </c>
       <c r="W88" s="19" t="s">
@@ -2872,15 +2864,15 @@
       <c r="N89">
         <v>53</v>
       </c>
-      <c r="Q89" s="38" t="s">
+      <c r="Q89" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="S89" s="32">
+      <c r="S89" s="28">
         <v>8</v>
       </c>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
-      <c r="V89" s="29">
+      <c r="V89" s="25">
         <v>17</v>
       </c>
       <c r="W89" s="19" t="s">
@@ -2894,15 +2886,15 @@
       <c r="N90">
         <v>54</v>
       </c>
-      <c r="Q90" s="38" t="s">
+      <c r="Q90" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="S90" s="32">
+      <c r="S90" s="28">
         <v>7</v>
       </c>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-      <c r="V90" s="29">
+      <c r="V90" s="25">
         <v>18</v>
       </c>
       <c r="W90" t="s">
@@ -2919,15 +2911,15 @@
       <c r="N91">
         <v>55</v>
       </c>
-      <c r="Q91" s="37" t="s">
+      <c r="Q91" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="S91" s="32">
+      <c r="S91" s="28">
         <v>6</v>
       </c>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
-      <c r="V91" s="29">
+      <c r="V91" s="25">
         <v>19</v>
       </c>
       <c r="W91" t="s">
@@ -2944,12 +2936,12 @@
       <c r="N92">
         <v>56</v>
       </c>
-      <c r="S92" s="31">
+      <c r="S92" s="27">
         <v>5</v>
       </c>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
-      <c r="V92" s="29">
+      <c r="V92" s="25">
         <v>20</v>
       </c>
       <c r="W92" t="s">
@@ -2966,12 +2958,12 @@
       <c r="N93">
         <v>57</v>
       </c>
-      <c r="S93" s="31">
+      <c r="S93" s="27">
         <v>4</v>
       </c>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
-      <c r="V93" s="29">
+      <c r="V93" s="25">
         <v>21</v>
       </c>
       <c r="W93" t="s">
@@ -2988,12 +2980,12 @@
       <c r="N94">
         <v>58</v>
       </c>
-      <c r="S94" s="31">
+      <c r="S94" s="27">
         <v>3</v>
       </c>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
-      <c r="V94" s="29">
+      <c r="V94" s="25">
         <v>22</v>
       </c>
       <c r="W94" s="19" t="s">
@@ -3007,12 +2999,12 @@
       <c r="N95">
         <v>59</v>
       </c>
-      <c r="S95" s="31">
+      <c r="S95" s="27">
         <v>2</v>
       </c>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
-      <c r="V95" s="29">
+      <c r="V95" s="25">
         <v>23</v>
       </c>
       <c r="W95" t="s">
@@ -3029,12 +3021,12 @@
       <c r="N96">
         <v>60</v>
       </c>
-      <c r="S96" s="31">
+      <c r="S96" s="27">
         <v>1</v>
       </c>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
-      <c r="V96" s="30" t="s">
+      <c r="V96" s="26" t="s">
         <v>50</v>
       </c>
       <c r="AB96">
@@ -3045,12 +3037,12 @@
       <c r="N97">
         <v>61</v>
       </c>
-      <c r="S97" s="31">
+      <c r="S97" s="27">
         <v>0</v>
       </c>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
-      <c r="V97" s="34"/>
+      <c r="V97" s="30"/>
       <c r="W97" s="3" t="s">
         <v>49</v>
       </c>
@@ -3062,12 +3054,12 @@
       <c r="N98">
         <v>62</v>
       </c>
-      <c r="S98" s="30" t="s">
+      <c r="S98" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
-      <c r="V98" s="30" t="s">
+      <c r="V98" s="26" t="s">
         <v>52</v>
       </c>
       <c r="AB98">
@@ -3078,15 +3070,15 @@
       <c r="N102" t="s">
         <v>104</v>
       </c>
-      <c r="Q102" s="36" t="s">
+      <c r="Q102" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="S102" s="31">
+      <c r="S102" s="27">
         <v>33</v>
       </c>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
-      <c r="V102" s="31">
+      <c r="V102" s="27">
         <v>32</v>
       </c>
       <c r="X102" s="4" t="s">
@@ -3097,15 +3089,15 @@
       <c r="N103" t="s">
         <v>103</v>
       </c>
-      <c r="Q103" s="36" t="s">
+      <c r="Q103" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="S103" s="31">
+      <c r="S103" s="27">
         <v>34</v>
       </c>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
-      <c r="V103" s="31">
+      <c r="V103" s="27">
         <v>31</v>
       </c>
       <c r="X103" s="4" t="s">
@@ -3119,15 +3111,15 @@
       <c r="O104" t="s">
         <v>110</v>
       </c>
-      <c r="Q104" s="36" t="s">
+      <c r="Q104" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S104" s="33">
+      <c r="S104" s="29">
         <v>35</v>
       </c>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
-      <c r="V104" s="29">
+      <c r="V104" s="25">
         <v>30</v>
       </c>
       <c r="X104" s="4" t="s">
@@ -3141,15 +3133,15 @@
       <c r="O105" t="s">
         <v>108</v>
       </c>
-      <c r="Q105" s="36" t="s">
+      <c r="Q105" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="S105" s="33">
+      <c r="S105" s="29">
         <v>36</v>
       </c>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
-      <c r="V105" s="29">
+      <c r="V105" s="25">
         <v>29</v>
       </c>
       <c r="X105" t="s">
@@ -3163,15 +3155,15 @@
       <c r="O106" t="s">
         <v>109</v>
       </c>
-      <c r="Q106" s="36" t="s">
+      <c r="Q106" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="S106" s="29">
+      <c r="S106" s="25">
         <v>37</v>
       </c>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
-      <c r="V106" s="29">
+      <c r="V106" s="25">
         <v>28</v>
       </c>
       <c r="X106" t="s">
@@ -3179,18 +3171,18 @@
       </c>
     </row>
     <row r="107" spans="14:28" x14ac:dyDescent="0.3">
-      <c r="Q107" s="36" t="s">
+      <c r="Q107" s="32" t="s">
         <v>102</v>
       </c>
       <c r="R107" t="s">
         <v>91</v>
       </c>
-      <c r="S107" s="29">
+      <c r="S107" s="25">
         <v>38</v>
       </c>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
-      <c r="V107" s="29">
+      <c r="V107" s="25">
         <v>27</v>
       </c>
       <c r="W107" t="s">
@@ -3201,18 +3193,18 @@
       </c>
     </row>
     <row r="108" spans="14:28" x14ac:dyDescent="0.3">
-      <c r="Q108" s="39" t="s">
+      <c r="Q108" s="35" t="s">
         <v>96</v>
       </c>
       <c r="R108" t="s">
         <v>92</v>
       </c>
-      <c r="S108" s="33">
+      <c r="S108" s="29">
         <v>39</v>
       </c>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
-      <c r="V108" s="29">
+      <c r="V108" s="25">
         <v>26</v>
       </c>
       <c r="W108" t="s">
@@ -3223,18 +3215,18 @@
       </c>
     </row>
     <row r="109" spans="14:28" x14ac:dyDescent="0.3">
-      <c r="Q109" s="40" t="s">
+      <c r="Q109" s="36" t="s">
         <v>105</v>
       </c>
       <c r="R109" t="s">
         <v>94</v>
       </c>
-      <c r="S109" s="33">
+      <c r="S109" s="29">
         <v>40</v>
       </c>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
-      <c r="V109" s="29">
+      <c r="V109" s="25">
         <v>25</v>
       </c>
       <c r="W109" t="s">
@@ -3245,18 +3237,18 @@
       </c>
     </row>
     <row r="110" spans="14:28" x14ac:dyDescent="0.3">
-      <c r="Q110" s="40" t="s">
+      <c r="Q110" s="36" t="s">
         <v>74</v>
       </c>
       <c r="R110" t="s">
         <v>93</v>
       </c>
-      <c r="S110" s="33">
+      <c r="S110" s="29">
         <v>41</v>
       </c>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
-      <c r="V110" s="29">
+      <c r="V110" s="25">
         <v>24</v>
       </c>
       <c r="W110" t="s">
@@ -3267,28 +3259,28 @@
       </c>
     </row>
     <row r="111" spans="14:28" x14ac:dyDescent="0.3">
-      <c r="S111" s="30" t="s">
+      <c r="S111" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
-      <c r="V111" s="30" t="s">
+      <c r="V111" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="112" spans="14:28" x14ac:dyDescent="0.3">
-      <c r="Q112" s="41" t="s">
+      <c r="Q112" s="37" t="s">
         <v>31</v>
       </c>
       <c r="R112" t="s">
         <v>51</v>
       </c>
-      <c r="S112" s="33">
+      <c r="S112" s="29">
         <v>13</v>
       </c>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
-      <c r="V112" s="33">
+      <c r="V112" s="29">
         <v>12</v>
       </c>
       <c r="X112" s="13" t="s">
@@ -3296,18 +3288,18 @@
       </c>
     </row>
     <row r="113" spans="16:24" x14ac:dyDescent="0.3">
-      <c r="Q113" s="36" t="s">
+      <c r="Q113" s="32" t="s">
         <v>132</v>
       </c>
       <c r="R113" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="S113" s="29">
+      <c r="S113" s="25">
         <v>14</v>
       </c>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
-      <c r="V113" s="33">
+      <c r="V113" s="29">
         <v>11</v>
       </c>
       <c r="X113" s="13" t="s">
@@ -3324,12 +3316,12 @@
       <c r="R114" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="S114" s="29">
+      <c r="S114" s="25">
         <v>15</v>
       </c>
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
-      <c r="V114" s="29">
+      <c r="V114" s="25">
         <v>10</v>
       </c>
       <c r="X114" s="13" t="s">
@@ -3340,16 +3332,16 @@
       <c r="P115" t="s">
         <v>123</v>
       </c>
-      <c r="Q115" s="42"/>
+      <c r="Q115" s="38"/>
       <c r="R115" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="S115" s="29">
+      <c r="S115" s="25">
         <v>16</v>
       </c>
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
-      <c r="V115" s="33">
+      <c r="V115" s="29">
         <v>9</v>
       </c>
       <c r="X115" t="s">
@@ -3363,12 +3355,12 @@
       <c r="R116" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="S116" s="29">
+      <c r="S116" s="25">
         <v>17</v>
       </c>
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
-      <c r="V116" s="32">
+      <c r="V116" s="28">
         <v>8</v>
       </c>
       <c r="X116" s="13" t="s">
@@ -3376,18 +3368,18 @@
       </c>
     </row>
     <row r="117" spans="16:24" x14ac:dyDescent="0.3">
-      <c r="Q117" s="41" t="s">
+      <c r="Q117" s="37" t="s">
         <v>29</v>
       </c>
       <c r="R117" t="s">
         <v>84</v>
       </c>
-      <c r="S117" s="29">
+      <c r="S117" s="25">
         <v>18</v>
       </c>
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
-      <c r="V117" s="32">
+      <c r="V117" s="28">
         <v>7</v>
       </c>
       <c r="X117" s="13" t="s">
@@ -3395,18 +3387,18 @@
       </c>
     </row>
     <row r="118" spans="16:24" x14ac:dyDescent="0.3">
-      <c r="Q118" s="41" t="s">
+      <c r="Q118" s="37" t="s">
         <v>26</v>
       </c>
       <c r="R118" t="s">
         <v>83</v>
       </c>
-      <c r="S118" s="29">
+      <c r="S118" s="25">
         <v>19</v>
       </c>
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
-      <c r="V118" s="32">
+      <c r="V118" s="28">
         <v>6</v>
       </c>
       <c r="X118" s="2" t="s">
@@ -3414,18 +3406,18 @@
       </c>
     </row>
     <row r="119" spans="16:24" x14ac:dyDescent="0.3">
-      <c r="Q119" s="37" t="s">
+      <c r="Q119" s="33" t="s">
         <v>116</v>
       </c>
       <c r="R119" t="s">
         <v>82</v>
       </c>
-      <c r="S119" s="29">
+      <c r="S119" s="25">
         <v>20</v>
       </c>
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
-      <c r="V119" s="31">
+      <c r="V119" s="27">
         <v>5</v>
       </c>
       <c r="X119" t="s">
@@ -3433,18 +3425,18 @@
       </c>
     </row>
     <row r="120" spans="16:24" x14ac:dyDescent="0.3">
-      <c r="Q120" s="37" t="s">
+      <c r="Q120" s="33" t="s">
         <v>117</v>
       </c>
       <c r="R120" t="s">
         <v>81</v>
       </c>
-      <c r="S120" s="29">
+      <c r="S120" s="25">
         <v>21</v>
       </c>
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
-      <c r="V120" s="31">
+      <c r="V120" s="27">
         <v>4</v>
       </c>
       <c r="X120" t="s">
@@ -3458,12 +3450,12 @@
       <c r="R121" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="S121" s="29">
+      <c r="S121" s="25">
         <v>22</v>
       </c>
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
-      <c r="V121" s="31">
+      <c r="V121" s="27">
         <v>3</v>
       </c>
       <c r="X121" t="s">
@@ -3471,18 +3463,18 @@
       </c>
     </row>
     <row r="122" spans="16:24" x14ac:dyDescent="0.3">
-      <c r="Q122" s="37" t="s">
+      <c r="Q122" s="33" t="s">
         <v>118</v>
       </c>
       <c r="R122" t="s">
         <v>79</v>
       </c>
-      <c r="S122" s="29">
+      <c r="S122" s="25">
         <v>23</v>
       </c>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
-      <c r="V122" s="31">
+      <c r="V122" s="27">
         <v>2</v>
       </c>
       <c r="X122" t="s">
@@ -3490,12 +3482,12 @@
       </c>
     </row>
     <row r="123" spans="16:24" x14ac:dyDescent="0.3">
-      <c r="S123" s="30" t="s">
+      <c r="S123" s="26" t="s">
         <v>50</v>
       </c>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
-      <c r="V123" s="31">
+      <c r="V123" s="27">
         <v>1</v>
       </c>
       <c r="X123" t="s">
@@ -3504,12 +3496,12 @@
     </row>
     <row r="124" spans="16:24" x14ac:dyDescent="0.3">
       <c r="R124" s="3"/>
-      <c r="S124" s="30" t="s">
+      <c r="S124" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
-      <c r="V124" s="31">
+      <c r="V124" s="27">
         <v>0</v>
       </c>
       <c r="X124" t="s">
@@ -3517,25 +3509,25 @@
       </c>
     </row>
     <row r="125" spans="16:24" x14ac:dyDescent="0.3">
-      <c r="S125" s="30" t="s">
+      <c r="S125" s="26" t="s">
         <v>52</v>
       </c>
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
-      <c r="V125" s="30" t="s">
+      <c r="V125" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="129" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q129" s="40" t="s">
+      <c r="Q129" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="S129" s="33">
+      <c r="S129" s="29">
         <v>33</v>
       </c>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
-      <c r="V129" s="29">
+      <c r="V129" s="25">
         <v>32</v>
       </c>
       <c r="X129" t="s">
@@ -3543,15 +3535,15 @@
       </c>
     </row>
     <row r="130" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q130" s="40" t="s">
+      <c r="Q130" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="S130" s="33">
+      <c r="S130" s="29">
         <v>34</v>
       </c>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
-      <c r="V130" s="29">
+      <c r="V130" s="25">
         <v>31</v>
       </c>
       <c r="X130" t="s">
@@ -3559,15 +3551,15 @@
       </c>
     </row>
     <row r="131" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q131" s="40" t="s">
+      <c r="Q131" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="S131" s="33">
+      <c r="S131" s="29">
         <v>35</v>
       </c>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
-      <c r="V131" s="29">
+      <c r="V131" s="25">
         <v>30</v>
       </c>
       <c r="X131" t="s">
@@ -3575,15 +3567,15 @@
       </c>
     </row>
     <row r="132" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q132" s="40" t="s">
+      <c r="Q132" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="S132" s="33">
+      <c r="S132" s="29">
         <v>36</v>
       </c>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
-      <c r="V132" s="29">
+      <c r="V132" s="25">
         <v>29</v>
       </c>
       <c r="X132" t="s">
@@ -3591,15 +3583,15 @@
       </c>
     </row>
     <row r="133" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q133" s="40" t="s">
+      <c r="Q133" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="S133" s="33">
+      <c r="S133" s="29">
         <v>37</v>
       </c>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
-      <c r="V133" s="29">
+      <c r="V133" s="25">
         <v>28</v>
       </c>
       <c r="X133" t="s">
@@ -3607,18 +3599,18 @@
       </c>
     </row>
     <row r="134" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q134" s="40" t="s">
+      <c r="Q134" s="36" t="s">
         <v>141</v>
       </c>
       <c r="R134" t="s">
         <v>91</v>
       </c>
-      <c r="S134" s="29">
+      <c r="S134" s="25">
         <v>38</v>
       </c>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
-      <c r="V134" s="35">
+      <c r="V134" s="31">
         <v>27</v>
       </c>
       <c r="W134" t="s">
@@ -3629,18 +3621,18 @@
       </c>
     </row>
     <row r="135" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q135" s="39" t="s">
+      <c r="Q135" s="35" t="s">
         <v>96</v>
       </c>
       <c r="R135" t="s">
         <v>92</v>
       </c>
-      <c r="S135" s="29">
+      <c r="S135" s="25">
         <v>39</v>
       </c>
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
-      <c r="V135" s="35">
+      <c r="V135" s="31">
         <v>26</v>
       </c>
       <c r="W135" t="s">
@@ -3651,18 +3643,18 @@
       </c>
     </row>
     <row r="136" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q136" s="36" t="s">
+      <c r="Q136" s="32" t="s">
         <v>136</v>
       </c>
       <c r="R136" t="s">
         <v>94</v>
       </c>
-      <c r="S136" s="29">
+      <c r="S136" s="25">
         <v>40</v>
       </c>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
-      <c r="V136" s="29">
+      <c r="V136" s="25">
         <v>25</v>
       </c>
       <c r="W136" t="s">
@@ -3676,18 +3668,18 @@
       <c r="O137" t="s">
         <v>142</v>
       </c>
-      <c r="Q137" s="36" t="s">
+      <c r="Q137" s="32" t="s">
         <v>135</v>
       </c>
       <c r="R137" t="s">
         <v>93</v>
       </c>
-      <c r="S137" s="29">
+      <c r="S137" s="25">
         <v>41</v>
       </c>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
-      <c r="V137" s="29">
+      <c r="V137" s="25">
         <v>24</v>
       </c>
       <c r="W137" t="s">
@@ -3698,30 +3690,30 @@
       </c>
     </row>
     <row r="138" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q138" s="43"/>
-      <c r="S138" s="30" t="s">
+      <c r="Q138" s="39"/>
+      <c r="S138" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
-      <c r="V138" s="30" t="s">
+      <c r="V138" s="26" t="s">
         <v>50</v>
       </c>
       <c r="X138" s="22"/>
     </row>
     <row r="139" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q139" s="44" t="s">
+      <c r="Q139" s="40" t="s">
         <v>31</v>
       </c>
       <c r="R139" t="s">
         <v>51</v>
       </c>
-      <c r="S139" s="29">
+      <c r="S139" s="25">
         <v>13</v>
       </c>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
-      <c r="V139" s="29">
+      <c r="V139" s="25">
         <v>12</v>
       </c>
       <c r="X139" s="13" t="s">
@@ -3729,18 +3721,18 @@
       </c>
     </row>
     <row r="140" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q140" s="44" t="s">
+      <c r="Q140" s="40" t="s">
         <v>132</v>
       </c>
       <c r="R140" t="s">
         <v>77</v>
       </c>
-      <c r="S140" s="29">
+      <c r="S140" s="25">
         <v>14</v>
       </c>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
-      <c r="V140" s="29">
+      <c r="V140" s="25">
         <v>11</v>
       </c>
       <c r="X140" s="13" t="s">
@@ -3751,18 +3743,18 @@
       <c r="O141" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="Q141" s="45" t="s">
+      <c r="Q141" s="41" t="s">
         <v>123</v>
       </c>
       <c r="R141" t="s">
         <v>78</v>
       </c>
-      <c r="S141" s="29">
+      <c r="S141" s="25">
         <v>15</v>
       </c>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
-      <c r="V141" s="29">
+      <c r="V141" s="25">
         <v>10</v>
       </c>
       <c r="X141" s="13" t="s">
@@ -3770,18 +3762,18 @@
       </c>
     </row>
     <row r="142" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q142" s="37" t="s">
+      <c r="Q142" s="33" t="s">
         <v>111</v>
       </c>
       <c r="R142" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="S142" s="29">
+      <c r="S142" s="25">
         <v>16</v>
       </c>
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
-      <c r="V142" s="29">
+      <c r="V142" s="25">
         <v>9</v>
       </c>
       <c r="X142" t="s">
@@ -3789,18 +3781,18 @@
       </c>
     </row>
     <row r="143" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q143" s="45" t="s">
+      <c r="Q143" s="41" t="s">
         <v>124</v>
       </c>
       <c r="R143" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="S143" s="29">
+      <c r="S143" s="25">
         <v>17</v>
       </c>
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
-      <c r="V143" s="32">
+      <c r="V143" s="28">
         <v>8</v>
       </c>
       <c r="X143" s="13" t="s">
@@ -3808,18 +3800,18 @@
       </c>
     </row>
     <row r="144" spans="15:24" x14ac:dyDescent="0.3">
-      <c r="Q144" s="41" t="s">
+      <c r="Q144" s="37" t="s">
         <v>29</v>
       </c>
       <c r="R144" t="s">
         <v>84</v>
       </c>
-      <c r="S144" s="29">
+      <c r="S144" s="25">
         <v>18</v>
       </c>
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
-      <c r="V144" s="32">
+      <c r="V144" s="28">
         <v>7</v>
       </c>
       <c r="X144" s="13" t="s">
@@ -3827,18 +3819,18 @@
       </c>
     </row>
     <row r="145" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="Q145" s="41" t="s">
+      <c r="Q145" s="37" t="s">
         <v>26</v>
       </c>
       <c r="R145" t="s">
         <v>83</v>
       </c>
-      <c r="S145" s="29">
+      <c r="S145" s="25">
         <v>19</v>
       </c>
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
-      <c r="V145" s="32">
+      <c r="V145" s="28">
         <v>6</v>
       </c>
       <c r="X145" s="2" t="s">
@@ -3846,18 +3838,18 @@
       </c>
     </row>
     <row r="146" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="Q146" s="37" t="s">
+      <c r="Q146" s="33" t="s">
         <v>116</v>
       </c>
       <c r="R146" t="s">
         <v>82</v>
       </c>
-      <c r="S146" s="29">
+      <c r="S146" s="25">
         <v>20</v>
       </c>
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
-      <c r="V146" s="29">
+      <c r="V146" s="25">
         <v>5</v>
       </c>
       <c r="X146" t="s">
@@ -3865,18 +3857,18 @@
       </c>
     </row>
     <row r="147" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="Q147" s="37" t="s">
+      <c r="Q147" s="33" t="s">
         <v>117</v>
       </c>
       <c r="R147" t="s">
         <v>81</v>
       </c>
-      <c r="S147" s="29">
+      <c r="S147" s="25">
         <v>21</v>
       </c>
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
-      <c r="V147" s="29">
+      <c r="V147" s="25">
         <v>4</v>
       </c>
       <c r="X147" t="s">
@@ -3884,18 +3876,18 @@
       </c>
     </row>
     <row r="148" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="Q148" s="44" t="s">
+      <c r="Q148" s="40" t="s">
         <v>139</v>
       </c>
       <c r="R148" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="S148" s="29">
+      <c r="S148" s="25">
         <v>22</v>
       </c>
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
-      <c r="V148" s="29">
+      <c r="V148" s="25">
         <v>3</v>
       </c>
       <c r="X148" t="s">
@@ -3903,18 +3895,18 @@
       </c>
     </row>
     <row r="149" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="Q149" s="37" t="s">
+      <c r="Q149" s="33" t="s">
         <v>118</v>
       </c>
       <c r="R149" t="s">
         <v>79</v>
       </c>
-      <c r="S149" s="29">
+      <c r="S149" s="25">
         <v>23</v>
       </c>
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
-      <c r="V149" s="29">
+      <c r="V149" s="25">
         <v>2</v>
       </c>
       <c r="X149" s="24" t="s">
@@ -3922,12 +3914,12 @@
       </c>
     </row>
     <row r="150" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="S150" s="30" t="s">
+      <c r="S150" s="26" t="s">
         <v>50</v>
       </c>
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
-      <c r="V150" s="35">
+      <c r="V150" s="31">
         <v>1</v>
       </c>
       <c r="X150" t="s">
@@ -3936,12 +3928,12 @@
     </row>
     <row r="151" spans="14:24" x14ac:dyDescent="0.3">
       <c r="R151" s="3"/>
-      <c r="S151" s="30" t="s">
+      <c r="S151" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
-      <c r="V151" s="29">
+      <c r="V151" s="25">
         <v>0</v>
       </c>
       <c r="X151" t="s">
@@ -3949,197 +3941,197 @@
       </c>
     </row>
     <row r="152" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="S152" s="30" t="s">
+      <c r="S152" s="26" t="s">
         <v>52</v>
       </c>
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
-      <c r="V152" s="30" t="s">
+      <c r="V152" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="155" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N155" s="40"/>
+      <c r="N155" s="36"/>
       <c r="O155" t="s">
         <v>154</v>
       </c>
-      <c r="Q155" s="40" t="s">
+      <c r="Q155" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="S155" s="33">
+      <c r="S155" s="29">
         <v>33</v>
       </c>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
-      <c r="V155" s="31">
+      <c r="V155" s="27">
         <v>32</v>
       </c>
-      <c r="X155" s="58" t="s">
+      <c r="X155" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="156" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N156" s="41"/>
+      <c r="N156" s="37"/>
       <c r="O156" t="s">
         <v>155</v>
       </c>
-      <c r="Q156" s="40" t="s">
+      <c r="Q156" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="S156" s="33">
+      <c r="S156" s="29">
         <v>34</v>
       </c>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
-      <c r="V156" s="31">
+      <c r="V156" s="27">
         <v>31</v>
       </c>
-      <c r="X156" s="58" t="s">
+      <c r="X156" s="52" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="157" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N157" s="44"/>
+      <c r="N157" s="40"/>
       <c r="O157" t="s">
         <v>156</v>
       </c>
-      <c r="Q157" s="40" t="s">
+      <c r="Q157" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="S157" s="33">
+      <c r="S157" s="29">
         <v>35</v>
       </c>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
-      <c r="V157" s="31">
+      <c r="V157" s="27">
         <v>30</v>
       </c>
-      <c r="X157" s="58" t="s">
+      <c r="X157" s="52" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="158" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N158" s="51"/>
+      <c r="N158" s="47"/>
       <c r="O158" t="s">
         <v>157</v>
       </c>
-      <c r="Q158" s="40" t="s">
+      <c r="Q158" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="S158" s="33">
+      <c r="S158" s="29">
         <v>36</v>
       </c>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
-      <c r="V158" s="31">
+      <c r="V158" s="27">
         <v>29</v>
       </c>
-      <c r="X158" s="58" t="s">
+      <c r="X158" s="52" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="159" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N159" s="45"/>
+      <c r="N159" s="41"/>
       <c r="O159" t="s">
         <v>160</v>
       </c>
-      <c r="Q159" s="40" t="s">
+      <c r="Q159" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="S159" s="33">
+      <c r="S159" s="29">
         <v>37</v>
       </c>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
-      <c r="V159" s="31">
+      <c r="V159" s="27">
         <v>28</v>
       </c>
-      <c r="X159" s="58" t="s">
+      <c r="X159" s="52" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="160" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="Q160" s="40" t="s">
+      <c r="Q160" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="R160" s="55" t="s">
+      <c r="R160" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="S160" s="33">
+      <c r="S160" s="29">
         <v>38</v>
       </c>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
-      <c r="V160" s="59">
+      <c r="V160" s="29">
         <v>27</v>
       </c>
-      <c r="W160" s="55" t="s">
+      <c r="W160" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="X160" s="54" t="s">
+      <c r="X160" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="161" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q161" s="53" t="s">
+      <c r="Q161" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="R161" s="55" t="s">
+      <c r="R161" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="S161" s="33">
+      <c r="S161" s="29">
         <v>39</v>
       </c>
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
-      <c r="V161" s="59">
+      <c r="V161" s="29">
         <v>26</v>
       </c>
-      <c r="W161" s="55" t="s">
+      <c r="W161" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="X161" s="54" t="s">
+      <c r="X161" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="162" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q162" s="52" t="s">
+      <c r="Q162" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="R162" s="55" t="s">
+      <c r="R162" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="S162" s="34">
+      <c r="S162" s="30">
         <v>40</v>
       </c>
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
-      <c r="V162" s="31">
+      <c r="V162" s="27">
         <v>25</v>
       </c>
-      <c r="W162" s="55" t="s">
+      <c r="W162" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="X162" s="58" t="s">
+      <c r="X162" s="52" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="163" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q163" s="52" t="s">
+      <c r="Q163" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="R163" s="55" t="s">
+      <c r="R163" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="S163" s="34">
+      <c r="S163" s="30">
         <v>41</v>
       </c>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
-      <c r="V163" s="34">
+      <c r="V163" s="30">
         <v>24</v>
       </c>
-      <c r="W163" s="55" t="s">
+      <c r="W163" s="49" t="s">
         <v>87</v>
       </c>
       <c r="X163" s="1" t="s">
@@ -4147,31 +4139,31 @@
       </c>
     </row>
     <row r="164" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q164" s="43"/>
-      <c r="R164" s="55"/>
-      <c r="S164" s="30" t="s">
+      <c r="Q164" s="39"/>
+      <c r="R164" s="49"/>
+      <c r="S164" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
-      <c r="V164" s="30" t="s">
+      <c r="V164" s="26" t="s">
         <v>50</v>
       </c>
       <c r="X164" s="22"/>
     </row>
     <row r="165" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q165" s="44" t="s">
+      <c r="Q165" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="R165" s="55" t="s">
+      <c r="R165" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="S165" s="29">
+      <c r="S165" s="25">
         <v>13</v>
       </c>
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
-      <c r="V165" s="29">
+      <c r="V165" s="25">
         <v>12</v>
       </c>
       <c r="X165" s="13" t="s">
@@ -4179,18 +4171,18 @@
       </c>
     </row>
     <row r="166" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q166" s="44" t="s">
+      <c r="Q166" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="R166" s="55" t="s">
+      <c r="R166" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="S166" s="29">
+      <c r="S166" s="25">
         <v>14</v>
       </c>
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
-      <c r="V166" s="29">
+      <c r="V166" s="25">
         <v>11</v>
       </c>
       <c r="X166" s="13" t="s">
@@ -4198,18 +4190,18 @@
       </c>
     </row>
     <row r="167" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q167" s="45" t="s">
+      <c r="Q167" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="R167" s="55" t="s">
+      <c r="R167" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="S167" s="31">
+      <c r="S167" s="27">
         <v>15</v>
       </c>
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
-      <c r="V167" s="29">
+      <c r="V167" s="25">
         <v>10</v>
       </c>
       <c r="X167" s="13" t="s">
@@ -4217,18 +4209,18 @@
       </c>
     </row>
     <row r="168" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q168" s="45" t="s">
+      <c r="Q168" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="R168" s="55" t="s">
+      <c r="R168" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="S168" s="31">
+      <c r="S168" s="27">
         <v>16</v>
       </c>
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
-      <c r="V168" s="34">
+      <c r="V168" s="30">
         <v>9</v>
       </c>
       <c r="X168" s="1" t="s">
@@ -4236,18 +4228,18 @@
       </c>
     </row>
     <row r="169" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q169" s="45" t="s">
+      <c r="Q169" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="R169" s="55" t="s">
+      <c r="R169" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="S169" s="31">
+      <c r="S169" s="27">
         <v>17</v>
       </c>
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
-      <c r="V169" s="29">
+      <c r="V169" s="25">
         <v>8</v>
       </c>
       <c r="X169" s="13" t="s">
@@ -4255,18 +4247,18 @@
       </c>
     </row>
     <row r="170" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q170" s="41" t="s">
+      <c r="Q170" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="R170" s="55" t="s">
+      <c r="R170" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="S170" s="29">
+      <c r="S170" s="25">
         <v>18</v>
       </c>
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
-      <c r="V170" s="29">
+      <c r="V170" s="25">
         <v>7</v>
       </c>
       <c r="X170" s="13" t="s">
@@ -4274,18 +4266,18 @@
       </c>
     </row>
     <row r="171" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q171" s="41" t="s">
+      <c r="Q171" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="R171" s="55" t="s">
+      <c r="R171" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="S171" s="29">
+      <c r="S171" s="25">
         <v>19</v>
       </c>
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
-      <c r="V171" s="29">
+      <c r="V171" s="25">
         <v>6</v>
       </c>
       <c r="X171" s="13" t="s">
@@ -4293,75 +4285,75 @@
       </c>
     </row>
     <row r="172" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q172" s="56" t="s">
+      <c r="Q172" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="R172" s="55" t="s">
+      <c r="R172" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="S172" s="29">
+      <c r="S172" s="25">
         <v>20</v>
       </c>
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
-      <c r="V172" s="29">
+      <c r="V172" s="25">
         <v>5</v>
       </c>
-      <c r="X172" s="46" t="s">
+      <c r="X172" s="42" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="173" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q173" s="56" t="s">
+      <c r="Q173" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="R173" s="55" t="s">
+      <c r="R173" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="S173" s="29">
+      <c r="S173" s="25">
         <v>21</v>
       </c>
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
-      <c r="V173" s="29">
+      <c r="V173" s="25">
         <v>4</v>
       </c>
-      <c r="X173" s="46" t="s">
+      <c r="X173" s="42" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="174" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q174" s="44" t="s">
+      <c r="Q174" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="R174" s="55" t="s">
+      <c r="R174" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="S174" s="57">
+      <c r="S174" s="51">
         <v>22</v>
       </c>
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
-      <c r="V174" s="29">
+      <c r="V174" s="25">
         <v>3</v>
       </c>
-      <c r="X174" s="46" t="s">
+      <c r="X174" s="42" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="175" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="Q175" s="56" t="s">
+      <c r="Q175" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="R175" s="55" t="s">
+      <c r="R175" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="S175" s="29">
+      <c r="S175" s="25">
         <v>23</v>
       </c>
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
-      <c r="V175" s="57">
+      <c r="V175" s="51">
         <v>2</v>
       </c>
       <c r="X175" s="24" t="s">
@@ -4369,39 +4361,39 @@
       </c>
     </row>
     <row r="176" spans="17:24" x14ac:dyDescent="0.3">
-      <c r="S176" s="30" t="s">
+      <c r="S176" s="26" t="s">
         <v>50</v>
       </c>
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
-      <c r="V176" s="59">
+      <c r="V176" s="29">
         <v>1</v>
       </c>
-      <c r="X176" s="60" t="s">
+      <c r="X176" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="177" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R177" s="3"/>
-      <c r="S177" s="30" t="s">
+      <c r="S177" s="26" t="s">
         <v>49</v>
       </c>
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
-      <c r="V177" s="31">
+      <c r="V177" s="27">
         <v>0</v>
       </c>
-      <c r="X177" s="58" t="s">
+      <c r="X177" s="52" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="178" spans="18:24" x14ac:dyDescent="0.3">
-      <c r="S178" s="30" t="s">
+      <c r="S178" s="26" t="s">
         <v>52</v>
       </c>
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
-      <c r="V178" s="30" t="s">
+      <c r="V178" s="26" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4410,6 +4402,26 @@
     <sortCondition ref="N75:N98"/>
   </sortState>
   <mergeCells count="35">
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="K26:K27"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J10:J11"/>
@@ -4425,26 +4437,6 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="K30:K31"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
